--- a/data-docs/mock_data.xlsx
+++ b/data-docs/mock_data.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/satkotee/projects/ps/retail-data-service/data-docs/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{59A9DE7E-7624-954D-822D-ACF121407F82}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6FCEFF99-3D54-504B-8715-F242B70B804E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="16280" yWindow="-21100" windowWidth="38400" windowHeight="21100" activeTab="7" xr2:uid="{A9E6B992-F681-4700-AAE1-CB65836D3F05}"/>
+    <workbookView xWindow="16280" yWindow="-21100" windowWidth="38400" windowHeight="21100" activeTab="9" xr2:uid="{A9E6B992-F681-4700-AAE1-CB65836D3F05}"/>
   </bookViews>
   <sheets>
     <sheet name="Use_Cases" sheetId="2" r:id="rId1"/>
@@ -22,6 +22,7 @@
     <sheet name="Product" sheetId="1" r:id="rId7"/>
     <sheet name="Beach_Wear" sheetId="12" r:id="rId8"/>
     <sheet name="Last_Mile" sheetId="13" r:id="rId9"/>
+    <sheet name="DD_Forecast" sheetId="14" r:id="rId10"/>
   </sheets>
   <calcPr calcId="191028"/>
   <extLst>
@@ -44,7 +45,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3622" uniqueCount="926">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3904" uniqueCount="1003">
   <si>
     <t>No.</t>
   </si>
@@ -3065,12 +3066,243 @@
   <si>
     <t>SKU-MEN-BEACH-A227B5</t>
   </si>
+  <si>
+    <t>ProductID</t>
+  </si>
+  <si>
+    <t>ProductName</t>
+  </si>
+  <si>
+    <t>Category</t>
+  </si>
+  <si>
+    <t>SubCategory</t>
+  </si>
+  <si>
+    <t>Price</t>
+  </si>
+  <si>
+    <t>Discount</t>
+  </si>
+  <si>
+    <t>Season</t>
+  </si>
+  <si>
+    <t>PromotionFlag</t>
+  </si>
+  <si>
+    <t>StoreLocation</t>
+  </si>
+  <si>
+    <t>HistoricalSales</t>
+  </si>
+  <si>
+    <t>AverageCustomerRating</t>
+  </si>
+  <si>
+    <t>StockLevel</t>
+  </si>
+  <si>
+    <t>Weekday</t>
+  </si>
+  <si>
+    <t>Weather</t>
+  </si>
+  <si>
+    <t>HolidayFlag</t>
+  </si>
+  <si>
+    <t>CompetitorPrice</t>
+  </si>
+  <si>
+    <t>Men's Clothing</t>
+  </si>
+  <si>
+    <t>Summer</t>
+  </si>
+  <si>
+    <t>NY001</t>
+  </si>
+  <si>
+    <t>Monday</t>
+  </si>
+  <si>
+    <t>Sunny</t>
+  </si>
+  <si>
+    <t>Wireless Headphones</t>
+  </si>
+  <si>
+    <t>Winter</t>
+  </si>
+  <si>
+    <t>CA001</t>
+  </si>
+  <si>
+    <t>Tuesday</t>
+  </si>
+  <si>
+    <t>Rainy</t>
+  </si>
+  <si>
+    <t>Home Goods</t>
+  </si>
+  <si>
+    <t>Kitchen</t>
+  </si>
+  <si>
+    <t>Fall</t>
+  </si>
+  <si>
+    <t>TX001</t>
+  </si>
+  <si>
+    <t>Wednesday</t>
+  </si>
+  <si>
+    <t>Cloudy</t>
+  </si>
+  <si>
+    <t>Women's Jacket</t>
+  </si>
+  <si>
+    <t>Women's Clothing</t>
+  </si>
+  <si>
+    <t>IL001</t>
+  </si>
+  <si>
+    <t>Thursday</t>
+  </si>
+  <si>
+    <t>Snowy</t>
+  </si>
+  <si>
+    <t>Ceramic Vase</t>
+  </si>
+  <si>
+    <t>Decor</t>
+  </si>
+  <si>
+    <t>Spring</t>
+  </si>
+  <si>
+    <t>FL001</t>
+  </si>
+  <si>
+    <t>Friday</t>
+  </si>
+  <si>
+    <t>Footwear</t>
+  </si>
+  <si>
+    <t>NV001</t>
+  </si>
+  <si>
+    <t>Saturday</t>
+  </si>
+  <si>
+    <t>Clear</t>
+  </si>
+  <si>
+    <t>Gadgets</t>
+  </si>
+  <si>
+    <t>WA001</t>
+  </si>
+  <si>
+    <t>Sunday</t>
+  </si>
+  <si>
+    <t>Casual Dress</t>
+  </si>
+  <si>
+    <t>Gaming</t>
+  </si>
+  <si>
+    <t>Wearables</t>
+  </si>
+  <si>
+    <t>Leather Wallet</t>
+  </si>
+  <si>
+    <t>Accessories</t>
+  </si>
+  <si>
+    <t>Formal Shirt</t>
+  </si>
+  <si>
+    <t>Yoga Mat</t>
+  </si>
+  <si>
+    <t>Fitness</t>
+  </si>
+  <si>
+    <t>Water Bottle</t>
+  </si>
+  <si>
+    <t>Computers</t>
+  </si>
+  <si>
+    <t>Backpack</t>
+  </si>
+  <si>
+    <t>Sunglasses</t>
+  </si>
+  <si>
+    <t>Men's Watch</t>
+  </si>
+  <si>
+    <t>Desk Lamp</t>
+  </si>
+  <si>
+    <t>Mixer Grinder</t>
+  </si>
+  <si>
+    <t>Men's Shoes</t>
+  </si>
+  <si>
+    <t>Women's Blouse</t>
+  </si>
+  <si>
+    <t>Bed Sheets</t>
+  </si>
+  <si>
+    <t>Bedding</t>
+  </si>
+  <si>
+    <t>Belt</t>
+  </si>
+  <si>
+    <t>Pillow</t>
+  </si>
+  <si>
+    <t>Smartphone Cover</t>
+  </si>
+  <si>
+    <t>Gym Bag</t>
+  </si>
+  <si>
+    <t>Women's Sandals</t>
+  </si>
+  <si>
+    <t>Acoustic Guitar</t>
+  </si>
+  <si>
+    <t>Music</t>
+  </si>
+  <si>
+    <t>Power Bank</t>
+  </si>
+  <si>
+    <t>Kettlebell</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="8" x14ac:knownFonts="1">
+  <fonts count="10" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -3125,8 +3357,23 @@
       <name val="Arial"/>
       <family val="2"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="7">
+  <fills count="8">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -3161,6 +3408,12 @@
       <patternFill patternType="solid">
         <fgColor rgb="FFFFC000"/>
         <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFE8E8E8"/>
+        <bgColor rgb="FF000000"/>
       </patternFill>
     </fill>
   </fills>
@@ -3224,7 +3477,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="36">
+  <cellXfs count="39">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
@@ -3304,15 +3557,6 @@
     <xf numFmtId="14" fontId="2" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="6" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
@@ -3323,6 +3567,18 @@
     <xf numFmtId="0" fontId="1" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="9" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -3695,11 +3951,11 @@
         <v>4</v>
       </c>
       <c r="F1" s="6"/>
-      <c r="G1" s="29" t="s">
+      <c r="G1" s="33" t="s">
         <v>5</v>
       </c>
-      <c r="H1" s="29"/>
-      <c r="I1" s="29"/>
+      <c r="H1" s="33"/>
+      <c r="I1" s="33"/>
     </row>
     <row r="2" spans="1:26" s="4" customFormat="1" ht="32" x14ac:dyDescent="0.2">
       <c r="A2" s="9" t="s">
@@ -3710,11 +3966,11 @@
       <c r="D2" s="10"/>
       <c r="E2" s="10"/>
       <c r="F2" s="11"/>
-      <c r="G2" s="30" t="s">
+      <c r="G2" s="34" t="s">
         <v>7</v>
       </c>
-      <c r="H2" s="30"/>
-      <c r="I2" s="31"/>
+      <c r="H2" s="34"/>
+      <c r="I2" s="35"/>
     </row>
     <row r="3" spans="1:26" ht="32" x14ac:dyDescent="0.2">
       <c r="A3" s="5">
@@ -4379,6 +4635,1971 @@
     <mergeCell ref="G1:I1"/>
     <mergeCell ref="G2:I2"/>
   </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0C287628-AE23-9248-90AE-6C956B7C31B6}">
+  <dimension ref="A1:P39"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H15" sqref="H15"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="1" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A1" s="36" t="s">
+        <v>926</v>
+      </c>
+      <c r="B1" s="36" t="s">
+        <v>927</v>
+      </c>
+      <c r="C1" s="36" t="s">
+        <v>928</v>
+      </c>
+      <c r="D1" s="36" t="s">
+        <v>929</v>
+      </c>
+      <c r="E1" s="36" t="s">
+        <v>930</v>
+      </c>
+      <c r="F1" s="36" t="s">
+        <v>931</v>
+      </c>
+      <c r="G1" s="36" t="s">
+        <v>932</v>
+      </c>
+      <c r="H1" s="36" t="s">
+        <v>933</v>
+      </c>
+      <c r="I1" s="36" t="s">
+        <v>934</v>
+      </c>
+      <c r="J1" s="36" t="s">
+        <v>935</v>
+      </c>
+      <c r="K1" s="36" t="s">
+        <v>936</v>
+      </c>
+      <c r="L1" s="36" t="s">
+        <v>937</v>
+      </c>
+      <c r="M1" s="36" t="s">
+        <v>938</v>
+      </c>
+      <c r="N1" s="36" t="s">
+        <v>939</v>
+      </c>
+      <c r="O1" s="36" t="s">
+        <v>940</v>
+      </c>
+      <c r="P1" s="36" t="s">
+        <v>941</v>
+      </c>
+    </row>
+    <row r="2" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A2" s="37">
+        <v>1001</v>
+      </c>
+      <c r="B2" s="37" t="s">
+        <v>209</v>
+      </c>
+      <c r="C2" s="37" t="s">
+        <v>464</v>
+      </c>
+      <c r="D2" s="37" t="s">
+        <v>942</v>
+      </c>
+      <c r="E2" s="37">
+        <v>19.989999999999998</v>
+      </c>
+      <c r="F2" s="38">
+        <v>0.05</v>
+      </c>
+      <c r="G2" s="37" t="s">
+        <v>943</v>
+      </c>
+      <c r="H2" s="37">
+        <v>1</v>
+      </c>
+      <c r="I2" s="37" t="s">
+        <v>944</v>
+      </c>
+      <c r="J2" s="37">
+        <v>150</v>
+      </c>
+      <c r="K2" s="37">
+        <v>4.7</v>
+      </c>
+      <c r="L2" s="37">
+        <v>500</v>
+      </c>
+      <c r="M2" s="37" t="s">
+        <v>945</v>
+      </c>
+      <c r="N2" s="37" t="s">
+        <v>946</v>
+      </c>
+      <c r="O2" s="37">
+        <v>0</v>
+      </c>
+      <c r="P2" s="37">
+        <v>18.489999999999998</v>
+      </c>
+    </row>
+    <row r="3" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A3" s="37">
+        <v>1002</v>
+      </c>
+      <c r="B3" s="37" t="s">
+        <v>947</v>
+      </c>
+      <c r="C3" s="37" t="s">
+        <v>124</v>
+      </c>
+      <c r="D3" s="37" t="s">
+        <v>177</v>
+      </c>
+      <c r="E3" s="37">
+        <v>79.989999999999995</v>
+      </c>
+      <c r="F3" s="38">
+        <v>0.1</v>
+      </c>
+      <c r="G3" s="37" t="s">
+        <v>948</v>
+      </c>
+      <c r="H3" s="37">
+        <v>0</v>
+      </c>
+      <c r="I3" s="37" t="s">
+        <v>949</v>
+      </c>
+      <c r="J3" s="37">
+        <v>75</v>
+      </c>
+      <c r="K3" s="37">
+        <v>4.5</v>
+      </c>
+      <c r="L3" s="37">
+        <v>300</v>
+      </c>
+      <c r="M3" s="37" t="s">
+        <v>950</v>
+      </c>
+      <c r="N3" s="37" t="s">
+        <v>951</v>
+      </c>
+      <c r="O3" s="37">
+        <v>0</v>
+      </c>
+      <c r="P3" s="37">
+        <v>74.989999999999995</v>
+      </c>
+    </row>
+    <row r="4" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A4" s="37">
+        <v>1003</v>
+      </c>
+      <c r="B4" s="37" t="s">
+        <v>248</v>
+      </c>
+      <c r="C4" s="37" t="s">
+        <v>952</v>
+      </c>
+      <c r="D4" s="37" t="s">
+        <v>953</v>
+      </c>
+      <c r="E4" s="37">
+        <v>59.99</v>
+      </c>
+      <c r="F4" s="38">
+        <v>0</v>
+      </c>
+      <c r="G4" s="37" t="s">
+        <v>954</v>
+      </c>
+      <c r="H4" s="37">
+        <v>1</v>
+      </c>
+      <c r="I4" s="37" t="s">
+        <v>955</v>
+      </c>
+      <c r="J4" s="37">
+        <v>60</v>
+      </c>
+      <c r="K4" s="37">
+        <v>4.2</v>
+      </c>
+      <c r="L4" s="37">
+        <v>200</v>
+      </c>
+      <c r="M4" s="37" t="s">
+        <v>956</v>
+      </c>
+      <c r="N4" s="37" t="s">
+        <v>957</v>
+      </c>
+      <c r="O4" s="37">
+        <v>0</v>
+      </c>
+      <c r="P4" s="37">
+        <v>62.99</v>
+      </c>
+    </row>
+    <row r="5" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A5" s="37">
+        <v>1004</v>
+      </c>
+      <c r="B5" s="37" t="s">
+        <v>958</v>
+      </c>
+      <c r="C5" s="37" t="s">
+        <v>464</v>
+      </c>
+      <c r="D5" s="37" t="s">
+        <v>959</v>
+      </c>
+      <c r="E5" s="37">
+        <v>99.99</v>
+      </c>
+      <c r="F5" s="38">
+        <v>0.2</v>
+      </c>
+      <c r="G5" s="37" t="s">
+        <v>948</v>
+      </c>
+      <c r="H5" s="37">
+        <v>1</v>
+      </c>
+      <c r="I5" s="37" t="s">
+        <v>960</v>
+      </c>
+      <c r="J5" s="37">
+        <v>45</v>
+      </c>
+      <c r="K5" s="37">
+        <v>4.8</v>
+      </c>
+      <c r="L5" s="37">
+        <v>250</v>
+      </c>
+      <c r="M5" s="37" t="s">
+        <v>961</v>
+      </c>
+      <c r="N5" s="37" t="s">
+        <v>962</v>
+      </c>
+      <c r="O5" s="37">
+        <v>1</v>
+      </c>
+      <c r="P5" s="37">
+        <v>95.99</v>
+      </c>
+    </row>
+    <row r="6" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A6" s="37">
+        <v>1005</v>
+      </c>
+      <c r="B6" s="37" t="s">
+        <v>963</v>
+      </c>
+      <c r="C6" s="37" t="s">
+        <v>952</v>
+      </c>
+      <c r="D6" s="37" t="s">
+        <v>964</v>
+      </c>
+      <c r="E6" s="37">
+        <v>25.99</v>
+      </c>
+      <c r="F6" s="38">
+        <v>0.15</v>
+      </c>
+      <c r="G6" s="37" t="s">
+        <v>965</v>
+      </c>
+      <c r="H6" s="37">
+        <v>0</v>
+      </c>
+      <c r="I6" s="37" t="s">
+        <v>966</v>
+      </c>
+      <c r="J6" s="37">
+        <v>30</v>
+      </c>
+      <c r="K6" s="37">
+        <v>4.5999999999999996</v>
+      </c>
+      <c r="L6" s="37">
+        <v>100</v>
+      </c>
+      <c r="M6" s="37" t="s">
+        <v>967</v>
+      </c>
+      <c r="N6" s="37" t="s">
+        <v>946</v>
+      </c>
+      <c r="O6" s="37">
+        <v>0</v>
+      </c>
+      <c r="P6" s="37">
+        <v>24.99</v>
+      </c>
+    </row>
+    <row r="7" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A7" s="37">
+        <v>1006</v>
+      </c>
+      <c r="B7" s="37" t="s">
+        <v>131</v>
+      </c>
+      <c r="C7" s="37" t="s">
+        <v>464</v>
+      </c>
+      <c r="D7" s="37" t="s">
+        <v>968</v>
+      </c>
+      <c r="E7" s="37">
+        <v>49.99</v>
+      </c>
+      <c r="F7" s="38">
+        <v>0.1</v>
+      </c>
+      <c r="G7" s="37" t="s">
+        <v>943</v>
+      </c>
+      <c r="H7" s="37">
+        <v>0</v>
+      </c>
+      <c r="I7" s="37" t="s">
+        <v>969</v>
+      </c>
+      <c r="J7" s="37">
+        <v>120</v>
+      </c>
+      <c r="K7" s="37">
+        <v>4.9000000000000004</v>
+      </c>
+      <c r="L7" s="37">
+        <v>400</v>
+      </c>
+      <c r="M7" s="37" t="s">
+        <v>970</v>
+      </c>
+      <c r="N7" s="37" t="s">
+        <v>971</v>
+      </c>
+      <c r="O7" s="37">
+        <v>0</v>
+      </c>
+      <c r="P7" s="37">
+        <v>47.99</v>
+      </c>
+    </row>
+    <row r="8" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A8" s="37">
+        <v>1007</v>
+      </c>
+      <c r="B8" s="37" t="s">
+        <v>261</v>
+      </c>
+      <c r="C8" s="37" t="s">
+        <v>124</v>
+      </c>
+      <c r="D8" s="37" t="s">
+        <v>972</v>
+      </c>
+      <c r="E8" s="37">
+        <v>29.99</v>
+      </c>
+      <c r="F8" s="38">
+        <v>0</v>
+      </c>
+      <c r="G8" s="37" t="s">
+        <v>943</v>
+      </c>
+      <c r="H8" s="37">
+        <v>0</v>
+      </c>
+      <c r="I8" s="37" t="s">
+        <v>973</v>
+      </c>
+      <c r="J8" s="37">
+        <v>100</v>
+      </c>
+      <c r="K8" s="37">
+        <v>4.4000000000000004</v>
+      </c>
+      <c r="L8" s="37">
+        <v>350</v>
+      </c>
+      <c r="M8" s="37" t="s">
+        <v>974</v>
+      </c>
+      <c r="N8" s="37" t="s">
+        <v>951</v>
+      </c>
+      <c r="O8" s="37">
+        <v>1</v>
+      </c>
+      <c r="P8" s="37">
+        <v>27.99</v>
+      </c>
+    </row>
+    <row r="9" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A9" s="37">
+        <v>1008</v>
+      </c>
+      <c r="B9" s="37" t="s">
+        <v>975</v>
+      </c>
+      <c r="C9" s="37" t="s">
+        <v>464</v>
+      </c>
+      <c r="D9" s="37" t="s">
+        <v>959</v>
+      </c>
+      <c r="E9" s="37">
+        <v>39.99</v>
+      </c>
+      <c r="F9" s="38">
+        <v>0.15</v>
+      </c>
+      <c r="G9" s="37" t="s">
+        <v>965</v>
+      </c>
+      <c r="H9" s="37">
+        <v>1</v>
+      </c>
+      <c r="I9" s="37" t="s">
+        <v>944</v>
+      </c>
+      <c r="J9" s="37">
+        <v>130</v>
+      </c>
+      <c r="K9" s="37">
+        <v>4.3</v>
+      </c>
+      <c r="L9" s="37">
+        <v>300</v>
+      </c>
+      <c r="M9" s="37" t="s">
+        <v>945</v>
+      </c>
+      <c r="N9" s="37" t="s">
+        <v>946</v>
+      </c>
+      <c r="O9" s="37">
+        <v>0</v>
+      </c>
+      <c r="P9" s="37">
+        <v>36.99</v>
+      </c>
+    </row>
+    <row r="10" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A10" s="37">
+        <v>1009</v>
+      </c>
+      <c r="B10" s="37" t="s">
+        <v>217</v>
+      </c>
+      <c r="C10" s="37" t="s">
+        <v>124</v>
+      </c>
+      <c r="D10" s="37" t="s">
+        <v>976</v>
+      </c>
+      <c r="E10" s="37">
+        <v>299.99</v>
+      </c>
+      <c r="F10" s="38">
+        <v>0.05</v>
+      </c>
+      <c r="G10" s="37" t="s">
+        <v>948</v>
+      </c>
+      <c r="H10" s="37">
+        <v>1</v>
+      </c>
+      <c r="I10" s="37" t="s">
+        <v>949</v>
+      </c>
+      <c r="J10" s="37">
+        <v>50</v>
+      </c>
+      <c r="K10" s="37">
+        <v>4.9000000000000004</v>
+      </c>
+      <c r="L10" s="37">
+        <v>150</v>
+      </c>
+      <c r="M10" s="37" t="s">
+        <v>950</v>
+      </c>
+      <c r="N10" s="37" t="s">
+        <v>951</v>
+      </c>
+      <c r="O10" s="37">
+        <v>0</v>
+      </c>
+      <c r="P10" s="37">
+        <v>289.99</v>
+      </c>
+    </row>
+    <row r="11" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A11" s="37">
+        <v>1010</v>
+      </c>
+      <c r="B11" s="37" t="s">
+        <v>207</v>
+      </c>
+      <c r="C11" s="37" t="s">
+        <v>124</v>
+      </c>
+      <c r="D11" s="37" t="s">
+        <v>977</v>
+      </c>
+      <c r="E11" s="37">
+        <v>199.99</v>
+      </c>
+      <c r="F11" s="38">
+        <v>0.1</v>
+      </c>
+      <c r="G11" s="37" t="s">
+        <v>954</v>
+      </c>
+      <c r="H11" s="37">
+        <v>0</v>
+      </c>
+      <c r="I11" s="37" t="s">
+        <v>955</v>
+      </c>
+      <c r="J11" s="37">
+        <v>65</v>
+      </c>
+      <c r="K11" s="37">
+        <v>4.5999999999999996</v>
+      </c>
+      <c r="L11" s="37">
+        <v>250</v>
+      </c>
+      <c r="M11" s="37" t="s">
+        <v>956</v>
+      </c>
+      <c r="N11" s="37" t="s">
+        <v>957</v>
+      </c>
+      <c r="O11" s="37">
+        <v>0</v>
+      </c>
+      <c r="P11" s="37">
+        <v>189.99</v>
+      </c>
+    </row>
+    <row r="12" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A12" s="37">
+        <v>1011</v>
+      </c>
+      <c r="B12" s="37" t="s">
+        <v>978</v>
+      </c>
+      <c r="C12" s="37" t="s">
+        <v>464</v>
+      </c>
+      <c r="D12" s="37" t="s">
+        <v>979</v>
+      </c>
+      <c r="E12" s="37">
+        <v>49.99</v>
+      </c>
+      <c r="F12" s="38">
+        <v>0</v>
+      </c>
+      <c r="G12" s="37" t="s">
+        <v>954</v>
+      </c>
+      <c r="H12" s="37">
+        <v>1</v>
+      </c>
+      <c r="I12" s="37" t="s">
+        <v>960</v>
+      </c>
+      <c r="J12" s="37">
+        <v>75</v>
+      </c>
+      <c r="K12" s="37">
+        <v>4.7</v>
+      </c>
+      <c r="L12" s="37">
+        <v>200</v>
+      </c>
+      <c r="M12" s="37" t="s">
+        <v>961</v>
+      </c>
+      <c r="N12" s="37" t="s">
+        <v>962</v>
+      </c>
+      <c r="O12" s="37">
+        <v>0</v>
+      </c>
+      <c r="P12" s="37">
+        <v>45.99</v>
+      </c>
+    </row>
+    <row r="13" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A13" s="37">
+        <v>1012</v>
+      </c>
+      <c r="B13" s="37" t="s">
+        <v>980</v>
+      </c>
+      <c r="C13" s="37" t="s">
+        <v>464</v>
+      </c>
+      <c r="D13" s="37" t="s">
+        <v>942</v>
+      </c>
+      <c r="E13" s="37">
+        <v>29.99</v>
+      </c>
+      <c r="F13" s="38">
+        <v>0.1</v>
+      </c>
+      <c r="G13" s="37" t="s">
+        <v>965</v>
+      </c>
+      <c r="H13" s="37">
+        <v>1</v>
+      </c>
+      <c r="I13" s="37" t="s">
+        <v>966</v>
+      </c>
+      <c r="J13" s="37">
+        <v>180</v>
+      </c>
+      <c r="K13" s="37">
+        <v>4.5</v>
+      </c>
+      <c r="L13" s="37">
+        <v>400</v>
+      </c>
+      <c r="M13" s="37" t="s">
+        <v>967</v>
+      </c>
+      <c r="N13" s="37" t="s">
+        <v>946</v>
+      </c>
+      <c r="O13" s="37">
+        <v>0</v>
+      </c>
+      <c r="P13" s="37">
+        <v>27.49</v>
+      </c>
+    </row>
+    <row r="14" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A14" s="37">
+        <v>1013</v>
+      </c>
+      <c r="B14" s="37" t="s">
+        <v>981</v>
+      </c>
+      <c r="C14" s="37" t="s">
+        <v>952</v>
+      </c>
+      <c r="D14" s="37" t="s">
+        <v>982</v>
+      </c>
+      <c r="E14" s="37">
+        <v>59.99</v>
+      </c>
+      <c r="F14" s="38">
+        <v>0.2</v>
+      </c>
+      <c r="G14" s="37" t="s">
+        <v>943</v>
+      </c>
+      <c r="H14" s="37">
+        <v>0</v>
+      </c>
+      <c r="I14" s="37" t="s">
+        <v>969</v>
+      </c>
+      <c r="J14" s="37">
+        <v>90</v>
+      </c>
+      <c r="K14" s="37">
+        <v>4.4000000000000004</v>
+      </c>
+      <c r="L14" s="37">
+        <v>150</v>
+      </c>
+      <c r="M14" s="37" t="s">
+        <v>970</v>
+      </c>
+      <c r="N14" s="37" t="s">
+        <v>971</v>
+      </c>
+      <c r="O14" s="37">
+        <v>0</v>
+      </c>
+      <c r="P14" s="37">
+        <v>56.99</v>
+      </c>
+    </row>
+    <row r="15" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A15" s="37">
+        <v>1014</v>
+      </c>
+      <c r="B15" s="37" t="s">
+        <v>983</v>
+      </c>
+      <c r="C15" s="37" t="s">
+        <v>952</v>
+      </c>
+      <c r="D15" s="37" t="s">
+        <v>979</v>
+      </c>
+      <c r="E15" s="37">
+        <v>19.989999999999998</v>
+      </c>
+      <c r="F15" s="38">
+        <v>0</v>
+      </c>
+      <c r="G15" s="37" t="s">
+        <v>965</v>
+      </c>
+      <c r="H15" s="37">
+        <v>1</v>
+      </c>
+      <c r="I15" s="37" t="s">
+        <v>973</v>
+      </c>
+      <c r="J15" s="37">
+        <v>300</v>
+      </c>
+      <c r="K15" s="37">
+        <v>4.8</v>
+      </c>
+      <c r="L15" s="37">
+        <v>500</v>
+      </c>
+      <c r="M15" s="37" t="s">
+        <v>974</v>
+      </c>
+      <c r="N15" s="37" t="s">
+        <v>951</v>
+      </c>
+      <c r="O15" s="37">
+        <v>1</v>
+      </c>
+      <c r="P15" s="37">
+        <v>18.489999999999998</v>
+      </c>
+    </row>
+    <row r="16" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A16" s="37">
+        <v>1015</v>
+      </c>
+      <c r="B16" s="37" t="s">
+        <v>280</v>
+      </c>
+      <c r="C16" s="37" t="s">
+        <v>952</v>
+      </c>
+      <c r="D16" s="37" t="s">
+        <v>953</v>
+      </c>
+      <c r="E16" s="37">
+        <v>39.99</v>
+      </c>
+      <c r="F16" s="38">
+        <v>0.05</v>
+      </c>
+      <c r="G16" s="37" t="s">
+        <v>954</v>
+      </c>
+      <c r="H16" s="37">
+        <v>0</v>
+      </c>
+      <c r="I16" s="37" t="s">
+        <v>944</v>
+      </c>
+      <c r="J16" s="37">
+        <v>60</v>
+      </c>
+      <c r="K16" s="37">
+        <v>4.3</v>
+      </c>
+      <c r="L16" s="37">
+        <v>200</v>
+      </c>
+      <c r="M16" s="37" t="s">
+        <v>945</v>
+      </c>
+      <c r="N16" s="37" t="s">
+        <v>946</v>
+      </c>
+      <c r="O16" s="37">
+        <v>0</v>
+      </c>
+      <c r="P16" s="37">
+        <v>37.99</v>
+      </c>
+    </row>
+    <row r="17" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A17" s="37">
+        <v>1016</v>
+      </c>
+      <c r="B17" s="37" t="s">
+        <v>167</v>
+      </c>
+      <c r="C17" s="37" t="s">
+        <v>124</v>
+      </c>
+      <c r="D17" s="37" t="s">
+        <v>984</v>
+      </c>
+      <c r="E17" s="37">
+        <v>999.99</v>
+      </c>
+      <c r="F17" s="38">
+        <v>0.1</v>
+      </c>
+      <c r="G17" s="37" t="s">
+        <v>943</v>
+      </c>
+      <c r="H17" s="37">
+        <v>1</v>
+      </c>
+      <c r="I17" s="37" t="s">
+        <v>949</v>
+      </c>
+      <c r="J17" s="37">
+        <v>40</v>
+      </c>
+      <c r="K17" s="37">
+        <v>4.9000000000000004</v>
+      </c>
+      <c r="L17" s="37">
+        <v>100</v>
+      </c>
+      <c r="M17" s="37" t="s">
+        <v>950</v>
+      </c>
+      <c r="N17" s="37" t="s">
+        <v>951</v>
+      </c>
+      <c r="O17" s="37">
+        <v>1</v>
+      </c>
+      <c r="P17" s="37">
+        <v>979.99</v>
+      </c>
+    </row>
+    <row r="18" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A18" s="37">
+        <v>1017</v>
+      </c>
+      <c r="B18" s="37" t="s">
+        <v>985</v>
+      </c>
+      <c r="C18" s="37" t="s">
+        <v>464</v>
+      </c>
+      <c r="D18" s="37" t="s">
+        <v>979</v>
+      </c>
+      <c r="E18" s="37">
+        <v>49.99</v>
+      </c>
+      <c r="F18" s="38">
+        <v>0.15</v>
+      </c>
+      <c r="G18" s="37" t="s">
+        <v>954</v>
+      </c>
+      <c r="H18" s="37">
+        <v>0</v>
+      </c>
+      <c r="I18" s="37" t="s">
+        <v>955</v>
+      </c>
+      <c r="J18" s="37">
+        <v>85</v>
+      </c>
+      <c r="K18" s="37">
+        <v>4.5</v>
+      </c>
+      <c r="L18" s="37">
+        <v>300</v>
+      </c>
+      <c r="M18" s="37" t="s">
+        <v>956</v>
+      </c>
+      <c r="N18" s="37" t="s">
+        <v>957</v>
+      </c>
+      <c r="O18" s="37">
+        <v>0</v>
+      </c>
+      <c r="P18" s="37">
+        <v>46.99</v>
+      </c>
+    </row>
+    <row r="19" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A19" s="37">
+        <v>1018</v>
+      </c>
+      <c r="B19" s="37" t="s">
+        <v>986</v>
+      </c>
+      <c r="C19" s="37" t="s">
+        <v>464</v>
+      </c>
+      <c r="D19" s="37" t="s">
+        <v>979</v>
+      </c>
+      <c r="E19" s="37">
+        <v>19.989999999999998</v>
+      </c>
+      <c r="F19" s="38">
+        <v>0</v>
+      </c>
+      <c r="G19" s="37" t="s">
+        <v>943</v>
+      </c>
+      <c r="H19" s="37">
+        <v>1</v>
+      </c>
+      <c r="I19" s="37" t="s">
+        <v>960</v>
+      </c>
+      <c r="J19" s="37">
+        <v>95</v>
+      </c>
+      <c r="K19" s="37">
+        <v>4.4000000000000004</v>
+      </c>
+      <c r="L19" s="37">
+        <v>250</v>
+      </c>
+      <c r="M19" s="37" t="s">
+        <v>961</v>
+      </c>
+      <c r="N19" s="37" t="s">
+        <v>962</v>
+      </c>
+      <c r="O19" s="37">
+        <v>0</v>
+      </c>
+      <c r="P19" s="37">
+        <v>18.989999999999998</v>
+      </c>
+    </row>
+    <row r="20" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A20" s="37">
+        <v>1019</v>
+      </c>
+      <c r="B20" s="37" t="s">
+        <v>197</v>
+      </c>
+      <c r="C20" s="37" t="s">
+        <v>124</v>
+      </c>
+      <c r="D20" s="37" t="s">
+        <v>984</v>
+      </c>
+      <c r="E20" s="37">
+        <v>399.99</v>
+      </c>
+      <c r="F20" s="38">
+        <v>0.05</v>
+      </c>
+      <c r="G20" s="37" t="s">
+        <v>948</v>
+      </c>
+      <c r="H20" s="37">
+        <v>0</v>
+      </c>
+      <c r="I20" s="37" t="s">
+        <v>966</v>
+      </c>
+      <c r="J20" s="37">
+        <v>55</v>
+      </c>
+      <c r="K20" s="37">
+        <v>4.7</v>
+      </c>
+      <c r="L20" s="37">
+        <v>150</v>
+      </c>
+      <c r="M20" s="37" t="s">
+        <v>967</v>
+      </c>
+      <c r="N20" s="37" t="s">
+        <v>946</v>
+      </c>
+      <c r="O20" s="37">
+        <v>1</v>
+      </c>
+      <c r="P20" s="37">
+        <v>389.99</v>
+      </c>
+    </row>
+    <row r="21" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A21" s="37">
+        <v>1020</v>
+      </c>
+      <c r="B21" s="37" t="s">
+        <v>987</v>
+      </c>
+      <c r="C21" s="37" t="s">
+        <v>464</v>
+      </c>
+      <c r="D21" s="37" t="s">
+        <v>979</v>
+      </c>
+      <c r="E21" s="37">
+        <v>89.99</v>
+      </c>
+      <c r="F21" s="38">
+        <v>0.2</v>
+      </c>
+      <c r="G21" s="37" t="s">
+        <v>965</v>
+      </c>
+      <c r="H21" s="37">
+        <v>1</v>
+      </c>
+      <c r="I21" s="37" t="s">
+        <v>969</v>
+      </c>
+      <c r="J21" s="37">
+        <v>70</v>
+      </c>
+      <c r="K21" s="37">
+        <v>4.2</v>
+      </c>
+      <c r="L21" s="37">
+        <v>200</v>
+      </c>
+      <c r="M21" s="37" t="s">
+        <v>970</v>
+      </c>
+      <c r="N21" s="37" t="s">
+        <v>971</v>
+      </c>
+      <c r="O21" s="37">
+        <v>0</v>
+      </c>
+      <c r="P21" s="37">
+        <v>86.99</v>
+      </c>
+    </row>
+    <row r="22" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A22" s="37">
+        <v>1021</v>
+      </c>
+      <c r="B22" s="37" t="s">
+        <v>276</v>
+      </c>
+      <c r="C22" s="37" t="s">
+        <v>124</v>
+      </c>
+      <c r="D22" s="37" t="s">
+        <v>972</v>
+      </c>
+      <c r="E22" s="37">
+        <v>29.99</v>
+      </c>
+      <c r="F22" s="38">
+        <v>0</v>
+      </c>
+      <c r="G22" s="37" t="s">
+        <v>943</v>
+      </c>
+      <c r="H22" s="37">
+        <v>1</v>
+      </c>
+      <c r="I22" s="37" t="s">
+        <v>973</v>
+      </c>
+      <c r="J22" s="37">
+        <v>200</v>
+      </c>
+      <c r="K22" s="37">
+        <v>4.5999999999999996</v>
+      </c>
+      <c r="L22" s="37">
+        <v>400</v>
+      </c>
+      <c r="M22" s="37" t="s">
+        <v>974</v>
+      </c>
+      <c r="N22" s="37" t="s">
+        <v>951</v>
+      </c>
+      <c r="O22" s="37">
+        <v>0</v>
+      </c>
+      <c r="P22" s="37">
+        <v>27.49</v>
+      </c>
+    </row>
+    <row r="23" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A23" s="37">
+        <v>1022</v>
+      </c>
+      <c r="B23" s="37" t="s">
+        <v>988</v>
+      </c>
+      <c r="C23" s="37" t="s">
+        <v>952</v>
+      </c>
+      <c r="D23" s="37" t="s">
+        <v>964</v>
+      </c>
+      <c r="E23" s="37">
+        <v>25.99</v>
+      </c>
+      <c r="F23" s="38">
+        <v>0.05</v>
+      </c>
+      <c r="G23" s="37" t="s">
+        <v>954</v>
+      </c>
+      <c r="H23" s="37">
+        <v>0</v>
+      </c>
+      <c r="I23" s="37" t="s">
+        <v>944</v>
+      </c>
+      <c r="J23" s="37">
+        <v>35</v>
+      </c>
+      <c r="K23" s="37">
+        <v>4.3</v>
+      </c>
+      <c r="L23" s="37">
+        <v>150</v>
+      </c>
+      <c r="M23" s="37" t="s">
+        <v>945</v>
+      </c>
+      <c r="N23" s="37" t="s">
+        <v>946</v>
+      </c>
+      <c r="O23" s="37">
+        <v>0</v>
+      </c>
+      <c r="P23" s="37">
+        <v>24.49</v>
+      </c>
+    </row>
+    <row r="24" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A24" s="37">
+        <v>1023</v>
+      </c>
+      <c r="B24" s="37" t="s">
+        <v>989</v>
+      </c>
+      <c r="C24" s="37" t="s">
+        <v>952</v>
+      </c>
+      <c r="D24" s="37" t="s">
+        <v>953</v>
+      </c>
+      <c r="E24" s="37">
+        <v>75.989999999999995</v>
+      </c>
+      <c r="F24" s="38">
+        <v>0.1</v>
+      </c>
+      <c r="G24" s="37" t="s">
+        <v>965</v>
+      </c>
+      <c r="H24" s="37">
+        <v>1</v>
+      </c>
+      <c r="I24" s="37" t="s">
+        <v>949</v>
+      </c>
+      <c r="J24" s="37">
+        <v>65</v>
+      </c>
+      <c r="K24" s="37">
+        <v>4.9000000000000004</v>
+      </c>
+      <c r="L24" s="37">
+        <v>200</v>
+      </c>
+      <c r="M24" s="37" t="s">
+        <v>950</v>
+      </c>
+      <c r="N24" s="37" t="s">
+        <v>951</v>
+      </c>
+      <c r="O24" s="37">
+        <v>0</v>
+      </c>
+      <c r="P24" s="37">
+        <v>72.989999999999995</v>
+      </c>
+    </row>
+    <row r="25" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A25" s="37">
+        <v>1024</v>
+      </c>
+      <c r="B25" s="37" t="s">
+        <v>990</v>
+      </c>
+      <c r="C25" s="37" t="s">
+        <v>464</v>
+      </c>
+      <c r="D25" s="37" t="s">
+        <v>968</v>
+      </c>
+      <c r="E25" s="37">
+        <v>59.99</v>
+      </c>
+      <c r="F25" s="38">
+        <v>0.15</v>
+      </c>
+      <c r="G25" s="37" t="s">
+        <v>943</v>
+      </c>
+      <c r="H25" s="37">
+        <v>0</v>
+      </c>
+      <c r="I25" s="37" t="s">
+        <v>955</v>
+      </c>
+      <c r="J25" s="37">
+        <v>110</v>
+      </c>
+      <c r="K25" s="37">
+        <v>4.8</v>
+      </c>
+      <c r="L25" s="37">
+        <v>500</v>
+      </c>
+      <c r="M25" s="37" t="s">
+        <v>956</v>
+      </c>
+      <c r="N25" s="37" t="s">
+        <v>957</v>
+      </c>
+      <c r="O25" s="37">
+        <v>0</v>
+      </c>
+      <c r="P25" s="37">
+        <v>55.99</v>
+      </c>
+    </row>
+    <row r="26" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A26" s="37">
+        <v>1025</v>
+      </c>
+      <c r="B26" s="37" t="s">
+        <v>991</v>
+      </c>
+      <c r="C26" s="37" t="s">
+        <v>464</v>
+      </c>
+      <c r="D26" s="37" t="s">
+        <v>959</v>
+      </c>
+      <c r="E26" s="37">
+        <v>35.99</v>
+      </c>
+      <c r="F26" s="38">
+        <v>0</v>
+      </c>
+      <c r="G26" s="37" t="s">
+        <v>954</v>
+      </c>
+      <c r="H26" s="37">
+        <v>1</v>
+      </c>
+      <c r="I26" s="37" t="s">
+        <v>960</v>
+      </c>
+      <c r="J26" s="37">
+        <v>95</v>
+      </c>
+      <c r="K26" s="37">
+        <v>4.7</v>
+      </c>
+      <c r="L26" s="37">
+        <v>250</v>
+      </c>
+      <c r="M26" s="37" t="s">
+        <v>961</v>
+      </c>
+      <c r="N26" s="37" t="s">
+        <v>962</v>
+      </c>
+      <c r="O26" s="37">
+        <v>0</v>
+      </c>
+      <c r="P26" s="37">
+        <v>32.99</v>
+      </c>
+    </row>
+    <row r="27" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A27" s="37">
+        <v>1026</v>
+      </c>
+      <c r="B27" s="37" t="s">
+        <v>413</v>
+      </c>
+      <c r="C27" s="37" t="s">
+        <v>124</v>
+      </c>
+      <c r="D27" s="37" t="s">
+        <v>972</v>
+      </c>
+      <c r="E27" s="37">
+        <v>499.99</v>
+      </c>
+      <c r="F27" s="38">
+        <v>0.05</v>
+      </c>
+      <c r="G27" s="37" t="s">
+        <v>948</v>
+      </c>
+      <c r="H27" s="37">
+        <v>0</v>
+      </c>
+      <c r="I27" s="37" t="s">
+        <v>966</v>
+      </c>
+      <c r="J27" s="37">
+        <v>30</v>
+      </c>
+      <c r="K27" s="37">
+        <v>4.5</v>
+      </c>
+      <c r="L27" s="37">
+        <v>100</v>
+      </c>
+      <c r="M27" s="37" t="s">
+        <v>967</v>
+      </c>
+      <c r="N27" s="37" t="s">
+        <v>946</v>
+      </c>
+      <c r="O27" s="37">
+        <v>1</v>
+      </c>
+      <c r="P27" s="37">
+        <v>479.99</v>
+      </c>
+    </row>
+    <row r="28" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A28" s="37">
+        <v>1027</v>
+      </c>
+      <c r="B28" s="37" t="s">
+        <v>992</v>
+      </c>
+      <c r="C28" s="37" t="s">
+        <v>952</v>
+      </c>
+      <c r="D28" s="37" t="s">
+        <v>993</v>
+      </c>
+      <c r="E28" s="37">
+        <v>49.99</v>
+      </c>
+      <c r="F28" s="38">
+        <v>0.2</v>
+      </c>
+      <c r="G28" s="37" t="s">
+        <v>948</v>
+      </c>
+      <c r="H28" s="37">
+        <v>1</v>
+      </c>
+      <c r="I28" s="37" t="s">
+        <v>969</v>
+      </c>
+      <c r="J28" s="37">
+        <v>50</v>
+      </c>
+      <c r="K28" s="37">
+        <v>4.4000000000000004</v>
+      </c>
+      <c r="L28" s="37">
+        <v>200</v>
+      </c>
+      <c r="M28" s="37" t="s">
+        <v>970</v>
+      </c>
+      <c r="N28" s="37" t="s">
+        <v>971</v>
+      </c>
+      <c r="O28" s="37">
+        <v>0</v>
+      </c>
+      <c r="P28" s="37">
+        <v>46.99</v>
+      </c>
+    </row>
+    <row r="29" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A29" s="37">
+        <v>1028</v>
+      </c>
+      <c r="B29" s="37" t="s">
+        <v>994</v>
+      </c>
+      <c r="C29" s="37" t="s">
+        <v>464</v>
+      </c>
+      <c r="D29" s="37" t="s">
+        <v>979</v>
+      </c>
+      <c r="E29" s="37">
+        <v>14.99</v>
+      </c>
+      <c r="F29" s="38">
+        <v>0</v>
+      </c>
+      <c r="G29" s="37" t="s">
+        <v>965</v>
+      </c>
+      <c r="H29" s="37">
+        <v>0</v>
+      </c>
+      <c r="I29" s="37" t="s">
+        <v>973</v>
+      </c>
+      <c r="J29" s="37">
+        <v>130</v>
+      </c>
+      <c r="K29" s="37">
+        <v>4.5999999999999996</v>
+      </c>
+      <c r="L29" s="37">
+        <v>350</v>
+      </c>
+      <c r="M29" s="37" t="s">
+        <v>974</v>
+      </c>
+      <c r="N29" s="37" t="s">
+        <v>951</v>
+      </c>
+      <c r="O29" s="37">
+        <v>0</v>
+      </c>
+      <c r="P29" s="37">
+        <v>13.49</v>
+      </c>
+    </row>
+    <row r="30" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A30" s="37">
+        <v>1029</v>
+      </c>
+      <c r="B30" s="37" t="s">
+        <v>147</v>
+      </c>
+      <c r="C30" s="37" t="s">
+        <v>124</v>
+      </c>
+      <c r="D30" s="37" t="s">
+        <v>972</v>
+      </c>
+      <c r="E30" s="37">
+        <v>699.99</v>
+      </c>
+      <c r="F30" s="38">
+        <v>0.1</v>
+      </c>
+      <c r="G30" s="37" t="s">
+        <v>943</v>
+      </c>
+      <c r="H30" s="37">
+        <v>1</v>
+      </c>
+      <c r="I30" s="37" t="s">
+        <v>944</v>
+      </c>
+      <c r="J30" s="37">
+        <v>45</v>
+      </c>
+      <c r="K30" s="37">
+        <v>4.8</v>
+      </c>
+      <c r="L30" s="37">
+        <v>100</v>
+      </c>
+      <c r="M30" s="37" t="s">
+        <v>945</v>
+      </c>
+      <c r="N30" s="37" t="s">
+        <v>946</v>
+      </c>
+      <c r="O30" s="37">
+        <v>1</v>
+      </c>
+      <c r="P30" s="37">
+        <v>679.99</v>
+      </c>
+    </row>
+    <row r="31" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A31" s="37">
+        <v>1030</v>
+      </c>
+      <c r="B31" s="37" t="s">
+        <v>995</v>
+      </c>
+      <c r="C31" s="37" t="s">
+        <v>952</v>
+      </c>
+      <c r="D31" s="37" t="s">
+        <v>993</v>
+      </c>
+      <c r="E31" s="37">
+        <v>19.989999999999998</v>
+      </c>
+      <c r="F31" s="38">
+        <v>0.15</v>
+      </c>
+      <c r="G31" s="37" t="s">
+        <v>954</v>
+      </c>
+      <c r="H31" s="37">
+        <v>0</v>
+      </c>
+      <c r="I31" s="37" t="s">
+        <v>949</v>
+      </c>
+      <c r="J31" s="37">
+        <v>70</v>
+      </c>
+      <c r="K31" s="37">
+        <v>4.3</v>
+      </c>
+      <c r="L31" s="37">
+        <v>300</v>
+      </c>
+      <c r="M31" s="37" t="s">
+        <v>950</v>
+      </c>
+      <c r="N31" s="37" t="s">
+        <v>951</v>
+      </c>
+      <c r="O31" s="37">
+        <v>0</v>
+      </c>
+      <c r="P31" s="37">
+        <v>18.489999999999998</v>
+      </c>
+    </row>
+    <row r="32" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A32" s="37">
+        <v>1048</v>
+      </c>
+      <c r="B32" s="37" t="s">
+        <v>996</v>
+      </c>
+      <c r="C32" s="37" t="s">
+        <v>124</v>
+      </c>
+      <c r="D32" s="37" t="s">
+        <v>979</v>
+      </c>
+      <c r="E32" s="37">
+        <v>19.989999999999998</v>
+      </c>
+      <c r="F32" s="38">
+        <v>0.05</v>
+      </c>
+      <c r="G32" s="37" t="s">
+        <v>948</v>
+      </c>
+      <c r="H32" s="37">
+        <v>1</v>
+      </c>
+      <c r="I32" s="37" t="s">
+        <v>969</v>
+      </c>
+      <c r="J32" s="37">
+        <v>120</v>
+      </c>
+      <c r="K32" s="37">
+        <v>4.5</v>
+      </c>
+      <c r="L32" s="37">
+        <v>350</v>
+      </c>
+      <c r="M32" s="37" t="s">
+        <v>970</v>
+      </c>
+      <c r="N32" s="37" t="s">
+        <v>971</v>
+      </c>
+      <c r="O32" s="37">
+        <v>0</v>
+      </c>
+      <c r="P32" s="37">
+        <v>18.489999999999998</v>
+      </c>
+    </row>
+    <row r="33" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A33" s="37">
+        <v>1049</v>
+      </c>
+      <c r="B33" s="37" t="s">
+        <v>997</v>
+      </c>
+      <c r="C33" s="37" t="s">
+        <v>464</v>
+      </c>
+      <c r="D33" s="37" t="s">
+        <v>979</v>
+      </c>
+      <c r="E33" s="37">
+        <v>39.99</v>
+      </c>
+      <c r="F33" s="38">
+        <v>0</v>
+      </c>
+      <c r="G33" s="37" t="s">
+        <v>954</v>
+      </c>
+      <c r="H33" s="37">
+        <v>0</v>
+      </c>
+      <c r="I33" s="37" t="s">
+        <v>973</v>
+      </c>
+      <c r="J33" s="37">
+        <v>80</v>
+      </c>
+      <c r="K33" s="37">
+        <v>4.8</v>
+      </c>
+      <c r="L33" s="37">
+        <v>200</v>
+      </c>
+      <c r="M33" s="37" t="s">
+        <v>974</v>
+      </c>
+      <c r="N33" s="37" t="s">
+        <v>951</v>
+      </c>
+      <c r="O33" s="37">
+        <v>0</v>
+      </c>
+      <c r="P33" s="37">
+        <v>37.49</v>
+      </c>
+    </row>
+    <row r="34" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A34" s="37">
+        <v>1050</v>
+      </c>
+      <c r="B34" s="37" t="s">
+        <v>998</v>
+      </c>
+      <c r="C34" s="37" t="s">
+        <v>464</v>
+      </c>
+      <c r="D34" s="37" t="s">
+        <v>968</v>
+      </c>
+      <c r="E34" s="37">
+        <v>29.99</v>
+      </c>
+      <c r="F34" s="38">
+        <v>0.1</v>
+      </c>
+      <c r="G34" s="37" t="s">
+        <v>965</v>
+      </c>
+      <c r="H34" s="37">
+        <v>1</v>
+      </c>
+      <c r="I34" s="37" t="s">
+        <v>944</v>
+      </c>
+      <c r="J34" s="37">
+        <v>110</v>
+      </c>
+      <c r="K34" s="37">
+        <v>4.4000000000000004</v>
+      </c>
+      <c r="L34" s="37">
+        <v>400</v>
+      </c>
+      <c r="M34" s="37" t="s">
+        <v>945</v>
+      </c>
+      <c r="N34" s="37" t="s">
+        <v>946</v>
+      </c>
+      <c r="O34" s="37">
+        <v>0</v>
+      </c>
+      <c r="P34" s="37">
+        <v>28.49</v>
+      </c>
+    </row>
+    <row r="35" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A35" s="37">
+        <v>1071</v>
+      </c>
+      <c r="B35" s="37" t="s">
+        <v>429</v>
+      </c>
+      <c r="C35" s="37" t="s">
+        <v>124</v>
+      </c>
+      <c r="D35" s="37" t="s">
+        <v>972</v>
+      </c>
+      <c r="E35" s="37">
+        <v>299.99</v>
+      </c>
+      <c r="F35" s="38">
+        <v>0.05</v>
+      </c>
+      <c r="G35" s="37" t="s">
+        <v>943</v>
+      </c>
+      <c r="H35" s="37">
+        <v>0</v>
+      </c>
+      <c r="I35" s="37" t="s">
+        <v>955</v>
+      </c>
+      <c r="J35" s="37">
+        <v>55</v>
+      </c>
+      <c r="K35" s="37">
+        <v>4.9000000000000004</v>
+      </c>
+      <c r="L35" s="37">
+        <v>200</v>
+      </c>
+      <c r="M35" s="37" t="s">
+        <v>961</v>
+      </c>
+      <c r="N35" s="37" t="s">
+        <v>957</v>
+      </c>
+      <c r="O35" s="37">
+        <v>0</v>
+      </c>
+      <c r="P35" s="37">
+        <v>289.49</v>
+      </c>
+    </row>
+    <row r="36" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A36" s="37">
+        <v>1072</v>
+      </c>
+      <c r="B36" s="37" t="s">
+        <v>999</v>
+      </c>
+      <c r="C36" s="37" t="s">
+        <v>952</v>
+      </c>
+      <c r="D36" s="37" t="s">
+        <v>1000</v>
+      </c>
+      <c r="E36" s="37">
+        <v>199.99</v>
+      </c>
+      <c r="F36" s="38">
+        <v>0.15</v>
+      </c>
+      <c r="G36" s="37" t="s">
+        <v>954</v>
+      </c>
+      <c r="H36" s="37">
+        <v>1</v>
+      </c>
+      <c r="I36" s="37" t="s">
+        <v>960</v>
+      </c>
+      <c r="J36" s="37">
+        <v>40</v>
+      </c>
+      <c r="K36" s="37">
+        <v>4.7</v>
+      </c>
+      <c r="L36" s="37">
+        <v>150</v>
+      </c>
+      <c r="M36" s="37" t="s">
+        <v>967</v>
+      </c>
+      <c r="N36" s="37" t="s">
+        <v>962</v>
+      </c>
+      <c r="O36" s="37">
+        <v>0</v>
+      </c>
+      <c r="P36" s="37">
+        <v>189.49</v>
+      </c>
+    </row>
+    <row r="37" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A37" s="37">
+        <v>1073</v>
+      </c>
+      <c r="B37" s="37" t="s">
+        <v>1001</v>
+      </c>
+      <c r="C37" s="37" t="s">
+        <v>124</v>
+      </c>
+      <c r="D37" s="37" t="s">
+        <v>972</v>
+      </c>
+      <c r="E37" s="37">
+        <v>49.99</v>
+      </c>
+      <c r="F37" s="38">
+        <v>0</v>
+      </c>
+      <c r="G37" s="37" t="s">
+        <v>948</v>
+      </c>
+      <c r="H37" s="37">
+        <v>0</v>
+      </c>
+      <c r="I37" s="37" t="s">
+        <v>966</v>
+      </c>
+      <c r="J37" s="37">
+        <v>100</v>
+      </c>
+      <c r="K37" s="37">
+        <v>4.5999999999999996</v>
+      </c>
+      <c r="L37" s="37">
+        <v>450</v>
+      </c>
+      <c r="M37" s="37" t="s">
+        <v>970</v>
+      </c>
+      <c r="N37" s="37" t="s">
+        <v>946</v>
+      </c>
+      <c r="O37" s="37">
+        <v>1</v>
+      </c>
+      <c r="P37" s="37">
+        <v>47.99</v>
+      </c>
+    </row>
+    <row r="38" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A38" s="37">
+        <v>1074</v>
+      </c>
+      <c r="B38" s="37" t="s">
+        <v>986</v>
+      </c>
+      <c r="C38" s="37" t="s">
+        <v>464</v>
+      </c>
+      <c r="D38" s="37" t="s">
+        <v>979</v>
+      </c>
+      <c r="E38" s="37">
+        <v>29.99</v>
+      </c>
+      <c r="F38" s="38">
+        <v>0.1</v>
+      </c>
+      <c r="G38" s="37" t="s">
+        <v>965</v>
+      </c>
+      <c r="H38" s="37">
+        <v>1</v>
+      </c>
+      <c r="I38" s="37" t="s">
+        <v>969</v>
+      </c>
+      <c r="J38" s="37">
+        <v>85</v>
+      </c>
+      <c r="K38" s="37">
+        <v>4.3</v>
+      </c>
+      <c r="L38" s="37">
+        <v>250</v>
+      </c>
+      <c r="M38" s="37" t="s">
+        <v>974</v>
+      </c>
+      <c r="N38" s="37" t="s">
+        <v>971</v>
+      </c>
+      <c r="O38" s="37">
+        <v>0</v>
+      </c>
+      <c r="P38" s="37">
+        <v>28.49</v>
+      </c>
+    </row>
+    <row r="39" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A39" s="37">
+        <v>1075</v>
+      </c>
+      <c r="B39" s="37" t="s">
+        <v>1002</v>
+      </c>
+      <c r="C39" s="37" t="s">
+        <v>952</v>
+      </c>
+      <c r="D39" s="37" t="s">
+        <v>982</v>
+      </c>
+      <c r="E39" s="37">
+        <v>79.989999999999995</v>
+      </c>
+      <c r="F39" s="38">
+        <v>0.2</v>
+      </c>
+      <c r="G39" s="37" t="s">
+        <v>943</v>
+      </c>
+      <c r="H39" s="37">
+        <v>0</v>
+      </c>
+      <c r="I39" s="37" t="s">
+        <v>973</v>
+      </c>
+      <c r="J39" s="37">
+        <v>70</v>
+      </c>
+      <c r="K39" s="37">
+        <v>4.5</v>
+      </c>
+      <c r="L39" s="37">
+        <v>100</v>
+      </c>
+      <c r="M39" s="37" t="s">
+        <v>945</v>
+      </c>
+      <c r="N39" s="37" t="s">
+        <v>951</v>
+      </c>
+      <c r="O39" s="37">
+        <v>0</v>
+      </c>
+      <c r="P39" s="37">
+        <v>76.989999999999995</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -15070,8 +17291,8 @@
   <dimension ref="A1:T97"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A75" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F106" sqref="F106"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" sqref="A1:T1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -15093,16 +17314,16 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:20" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="32" t="s">
+      <c r="A1" s="29" t="s">
         <v>790</v>
       </c>
-      <c r="B1" s="32" t="s">
+      <c r="B1" s="29" t="s">
         <v>791</v>
       </c>
-      <c r="C1" s="32" t="s">
+      <c r="C1" s="29" t="s">
         <v>792</v>
       </c>
-      <c r="D1" s="32" t="s">
+      <c r="D1" s="29" t="s">
         <v>793</v>
       </c>
       <c r="E1" s="2" t="s">
@@ -21115,7 +23336,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C060CC1F-FDFC-42DF-A46F-27990716B188}">
   <dimension ref="A1:T49"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A40" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+    <sheetView zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
       <selection activeCell="D6" sqref="D6"/>
     </sheetView>
   </sheetViews>
@@ -21128,64 +23349,64 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:20" ht="45" x14ac:dyDescent="0.2">
-      <c r="A1" s="35" t="s">
+      <c r="A1" s="32" t="s">
         <v>790</v>
       </c>
-      <c r="B1" s="35" t="s">
+      <c r="B1" s="32" t="s">
         <v>791</v>
       </c>
-      <c r="C1" s="35" t="s">
+      <c r="C1" s="32" t="s">
         <v>792</v>
       </c>
-      <c r="D1" s="35" t="s">
+      <c r="D1" s="32" t="s">
         <v>793</v>
       </c>
-      <c r="E1" s="34" t="s">
+      <c r="E1" s="31" t="s">
         <v>49</v>
       </c>
-      <c r="F1" s="34" t="s">
+      <c r="F1" s="31" t="s">
         <v>14</v>
       </c>
-      <c r="G1" s="34" t="s">
+      <c r="G1" s="31" t="s">
         <v>50</v>
       </c>
-      <c r="H1" s="34" t="s">
+      <c r="H1" s="31" t="s">
         <v>44</v>
       </c>
-      <c r="I1" s="34" t="s">
+      <c r="I1" s="31" t="s">
         <v>51</v>
       </c>
-      <c r="J1" s="34" t="s">
+      <c r="J1" s="31" t="s">
         <v>52</v>
       </c>
-      <c r="K1" s="34" t="s">
+      <c r="K1" s="31" t="s">
         <v>53</v>
       </c>
-      <c r="L1" s="34" t="s">
+      <c r="L1" s="31" t="s">
         <v>54</v>
       </c>
-      <c r="M1" s="34" t="s">
+      <c r="M1" s="31" t="s">
         <v>55</v>
       </c>
-      <c r="N1" s="34" t="s">
+      <c r="N1" s="31" t="s">
         <v>56</v>
       </c>
-      <c r="O1" s="34" t="s">
+      <c r="O1" s="31" t="s">
         <v>57</v>
       </c>
-      <c r="P1" s="34" t="s">
+      <c r="P1" s="31" t="s">
         <v>58</v>
       </c>
-      <c r="Q1" s="34" t="s">
+      <c r="Q1" s="31" t="s">
         <v>59</v>
       </c>
-      <c r="R1" s="34" t="s">
+      <c r="R1" s="31" t="s">
         <v>60</v>
       </c>
-      <c r="S1" s="34" t="s">
+      <c r="S1" s="31" t="s">
         <v>38</v>
       </c>
-      <c r="T1" s="34" t="s">
+      <c r="T1" s="31" t="s">
         <v>43</v>
       </c>
     </row>
@@ -21202,56 +23423,56 @@
       <c r="D2" t="s">
         <v>912</v>
       </c>
-      <c r="E2" s="33" t="s">
+      <c r="E2" s="30" t="s">
         <v>740</v>
       </c>
-      <c r="F2" s="33" t="s">
+      <c r="F2" s="30" t="s">
         <v>741</v>
       </c>
-      <c r="G2" s="33">
+      <c r="G2" s="30">
         <v>50</v>
       </c>
-      <c r="H2" s="33">
+      <c r="H2" s="30">
         <v>40</v>
       </c>
-      <c r="I2" s="33">
+      <c r="I2" s="30">
         <v>20</v>
       </c>
-      <c r="J2" s="33">
+      <c r="J2" s="30">
         <v>15</v>
       </c>
-      <c r="K2" s="33">
+      <c r="K2" s="30">
         <v>10</v>
       </c>
-      <c r="L2" s="33">
+      <c r="L2" s="30">
         <v>25</v>
       </c>
-      <c r="M2" s="33">
+      <c r="M2" s="30">
         <v>20</v>
       </c>
-      <c r="N2" s="33">
+      <c r="N2" s="30">
         <v>15</v>
       </c>
-      <c r="O2" s="33">
+      <c r="O2" s="30">
         <v>30</v>
       </c>
-      <c r="P2" s="33">
+      <c r="P2" s="30">
         <v>5</v>
       </c>
-      <c r="Q2" s="33" t="s">
-        <v>738</v>
-      </c>
-      <c r="R2" s="33" t="s">
-        <v>738</v>
-      </c>
-      <c r="S2" s="33" t="s">
-        <v>739</v>
-      </c>
-      <c r="T2" s="33" t="s">
-        <v>738</v>
-      </c>
-    </row>
-    <row r="3" spans="1:20" ht="30" x14ac:dyDescent="0.2">
+      <c r="Q2" s="30" t="s">
+        <v>738</v>
+      </c>
+      <c r="R2" s="30" t="s">
+        <v>738</v>
+      </c>
+      <c r="S2" s="30" t="s">
+        <v>739</v>
+      </c>
+      <c r="T2" s="30" t="s">
+        <v>738</v>
+      </c>
+    </row>
+    <row r="3" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>798</v>
       </c>
@@ -21264,52 +23485,52 @@
       <c r="D3" t="s">
         <v>913</v>
       </c>
-      <c r="E3" s="33" t="s">
+      <c r="E3" s="30" t="s">
         <v>742</v>
       </c>
-      <c r="F3" s="33" t="s">
+      <c r="F3" s="30" t="s">
         <v>741</v>
       </c>
-      <c r="G3" s="33">
+      <c r="G3" s="30">
         <v>55</v>
       </c>
-      <c r="H3" s="33">
+      <c r="H3" s="30">
         <v>45</v>
       </c>
-      <c r="I3" s="33">
+      <c r="I3" s="30">
         <v>18</v>
       </c>
-      <c r="J3" s="33">
+      <c r="J3" s="30">
         <v>22</v>
       </c>
-      <c r="K3" s="33">
+      <c r="K3" s="30">
         <v>12</v>
       </c>
-      <c r="L3" s="33">
+      <c r="L3" s="30">
         <v>20</v>
       </c>
-      <c r="M3" s="33">
+      <c r="M3" s="30">
         <v>15</v>
       </c>
-      <c r="N3" s="33">
+      <c r="N3" s="30">
         <v>10</v>
       </c>
-      <c r="O3" s="33">
+      <c r="O3" s="30">
         <v>25</v>
       </c>
-      <c r="P3" s="33">
+      <c r="P3" s="30">
         <v>3</v>
       </c>
-      <c r="Q3" s="33" t="s">
-        <v>739</v>
-      </c>
-      <c r="R3" s="33" t="s">
-        <v>739</v>
-      </c>
-      <c r="S3" s="33" t="s">
-        <v>738</v>
-      </c>
-      <c r="T3" s="33" t="s">
+      <c r="Q3" s="30" t="s">
+        <v>739</v>
+      </c>
+      <c r="R3" s="30" t="s">
+        <v>739</v>
+      </c>
+      <c r="S3" s="30" t="s">
+        <v>738</v>
+      </c>
+      <c r="T3" s="30" t="s">
         <v>739</v>
       </c>
     </row>
@@ -21326,56 +23547,56 @@
       <c r="D4" t="s">
         <v>914</v>
       </c>
-      <c r="E4" s="33" t="s">
+      <c r="E4" s="30" t="s">
         <v>740</v>
       </c>
-      <c r="F4" s="33" t="s">
+      <c r="F4" s="30" t="s">
         <v>741</v>
       </c>
-      <c r="G4" s="33">
+      <c r="G4" s="30">
         <v>52</v>
       </c>
-      <c r="H4" s="33">
+      <c r="H4" s="30">
         <v>42</v>
       </c>
-      <c r="I4" s="33">
+      <c r="I4" s="30">
         <v>30</v>
       </c>
-      <c r="J4" s="33">
+      <c r="J4" s="30">
         <v>10</v>
       </c>
-      <c r="K4" s="33">
+      <c r="K4" s="30">
         <v>20</v>
       </c>
-      <c r="L4" s="33">
+      <c r="L4" s="30">
         <v>28</v>
       </c>
-      <c r="M4" s="33">
+      <c r="M4" s="30">
         <v>15</v>
       </c>
-      <c r="N4" s="33">
+      <c r="N4" s="30">
         <v>12</v>
       </c>
-      <c r="O4" s="33">
+      <c r="O4" s="30">
         <v>40</v>
       </c>
-      <c r="P4" s="33">
+      <c r="P4" s="30">
         <v>7</v>
       </c>
-      <c r="Q4" s="33" t="s">
-        <v>738</v>
-      </c>
-      <c r="R4" s="33" t="s">
-        <v>738</v>
-      </c>
-      <c r="S4" s="33" t="s">
-        <v>739</v>
-      </c>
-      <c r="T4" s="33" t="s">
-        <v>738</v>
-      </c>
-    </row>
-    <row r="5" spans="1:20" ht="30" x14ac:dyDescent="0.2">
+      <c r="Q4" s="30" t="s">
+        <v>738</v>
+      </c>
+      <c r="R4" s="30" t="s">
+        <v>738</v>
+      </c>
+      <c r="S4" s="30" t="s">
+        <v>739</v>
+      </c>
+      <c r="T4" s="30" t="s">
+        <v>738</v>
+      </c>
+    </row>
+    <row r="5" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>803</v>
       </c>
@@ -21388,52 +23609,52 @@
       <c r="D5" t="s">
         <v>915</v>
       </c>
-      <c r="E5" s="33" t="s">
+      <c r="E5" s="30" t="s">
         <v>742</v>
       </c>
-      <c r="F5" s="33" t="s">
+      <c r="F5" s="30" t="s">
         <v>741</v>
       </c>
-      <c r="G5" s="33">
+      <c r="G5" s="30">
         <v>58</v>
       </c>
-      <c r="H5" s="33">
+      <c r="H5" s="30">
         <v>48</v>
       </c>
-      <c r="I5" s="33">
+      <c r="I5" s="30">
         <v>25</v>
       </c>
-      <c r="J5" s="33">
+      <c r="J5" s="30">
         <v>12</v>
       </c>
-      <c r="K5" s="33">
+      <c r="K5" s="30">
         <v>30</v>
       </c>
-      <c r="L5" s="33">
+      <c r="L5" s="30">
         <v>20</v>
       </c>
-      <c r="M5" s="33">
+      <c r="M5" s="30">
         <v>10</v>
       </c>
-      <c r="N5" s="33">
+      <c r="N5" s="30">
         <v>18</v>
       </c>
-      <c r="O5" s="33">
+      <c r="O5" s="30">
         <v>35</v>
       </c>
-      <c r="P5" s="33">
+      <c r="P5" s="30">
         <v>4</v>
       </c>
-      <c r="Q5" s="33" t="s">
-        <v>738</v>
-      </c>
-      <c r="R5" s="33" t="s">
-        <v>738</v>
-      </c>
-      <c r="S5" s="33" t="s">
-        <v>738</v>
-      </c>
-      <c r="T5" s="33" t="s">
+      <c r="Q5" s="30" t="s">
+        <v>738</v>
+      </c>
+      <c r="R5" s="30" t="s">
+        <v>738</v>
+      </c>
+      <c r="S5" s="30" t="s">
+        <v>738</v>
+      </c>
+      <c r="T5" s="30" t="s">
         <v>738</v>
       </c>
     </row>
@@ -21450,56 +23671,56 @@
       <c r="D6" t="s">
         <v>916</v>
       </c>
-      <c r="E6" s="33" t="s">
+      <c r="E6" s="30" t="s">
         <v>740</v>
       </c>
-      <c r="F6" s="33" t="s">
+      <c r="F6" s="30" t="s">
         <v>741</v>
       </c>
-      <c r="G6" s="33">
+      <c r="G6" s="30">
         <v>54</v>
       </c>
-      <c r="H6" s="33">
+      <c r="H6" s="30">
         <v>44</v>
       </c>
-      <c r="I6" s="33">
+      <c r="I6" s="30">
         <v>16</v>
       </c>
-      <c r="J6" s="33">
+      <c r="J6" s="30">
         <v>18</v>
       </c>
-      <c r="K6" s="33">
+      <c r="K6" s="30">
         <v>15</v>
       </c>
-      <c r="L6" s="33">
+      <c r="L6" s="30">
         <v>15</v>
       </c>
-      <c r="M6" s="33">
+      <c r="M6" s="30">
         <v>18</v>
       </c>
-      <c r="N6" s="33">
+      <c r="N6" s="30">
         <v>20</v>
       </c>
-      <c r="O6" s="33">
+      <c r="O6" s="30">
         <v>28</v>
       </c>
-      <c r="P6" s="33">
+      <c r="P6" s="30">
         <v>2</v>
       </c>
-      <c r="Q6" s="33" t="s">
-        <v>739</v>
-      </c>
-      <c r="R6" s="33" t="s">
-        <v>738</v>
-      </c>
-      <c r="S6" s="33" t="s">
-        <v>739</v>
-      </c>
-      <c r="T6" s="33" t="s">
-        <v>739</v>
-      </c>
-    </row>
-    <row r="7" spans="1:20" ht="30" x14ac:dyDescent="0.2">
+      <c r="Q6" s="30" t="s">
+        <v>739</v>
+      </c>
+      <c r="R6" s="30" t="s">
+        <v>738</v>
+      </c>
+      <c r="S6" s="30" t="s">
+        <v>739</v>
+      </c>
+      <c r="T6" s="30" t="s">
+        <v>739</v>
+      </c>
+    </row>
+    <row r="7" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>809</v>
       </c>
@@ -21512,52 +23733,52 @@
       <c r="D7" t="s">
         <v>917</v>
       </c>
-      <c r="E7" s="33" t="s">
+      <c r="E7" s="30" t="s">
         <v>742</v>
       </c>
-      <c r="F7" s="33" t="s">
+      <c r="F7" s="30" t="s">
         <v>741</v>
       </c>
-      <c r="G7" s="33">
+      <c r="G7" s="30">
         <v>60</v>
       </c>
-      <c r="H7" s="33">
+      <c r="H7" s="30">
         <v>50</v>
       </c>
-      <c r="I7" s="33">
+      <c r="I7" s="30">
         <v>11</v>
       </c>
-      <c r="J7" s="33">
+      <c r="J7" s="30">
         <v>11</v>
       </c>
-      <c r="K7" s="33">
+      <c r="K7" s="30">
         <v>12</v>
       </c>
-      <c r="L7" s="33">
+      <c r="L7" s="30">
         <v>10</v>
       </c>
-      <c r="M7" s="33">
+      <c r="M7" s="30">
         <v>15</v>
       </c>
-      <c r="N7" s="33">
+      <c r="N7" s="30">
         <v>15</v>
       </c>
-      <c r="O7" s="33">
+      <c r="O7" s="30">
         <v>20</v>
       </c>
-      <c r="P7" s="33">
+      <c r="P7" s="30">
         <v>1</v>
       </c>
-      <c r="Q7" s="33" t="s">
-        <v>738</v>
-      </c>
-      <c r="R7" s="33" t="s">
-        <v>739</v>
-      </c>
-      <c r="S7" s="33" t="s">
-        <v>738</v>
-      </c>
-      <c r="T7" s="33" t="s">
+      <c r="Q7" s="30" t="s">
+        <v>738</v>
+      </c>
+      <c r="R7" s="30" t="s">
+        <v>739</v>
+      </c>
+      <c r="S7" s="30" t="s">
+        <v>738</v>
+      </c>
+      <c r="T7" s="30" t="s">
         <v>738</v>
       </c>
     </row>
@@ -21574,56 +23795,56 @@
       <c r="D8" t="s">
         <v>918</v>
       </c>
-      <c r="E8" s="33" t="s">
+      <c r="E8" s="30" t="s">
         <v>740</v>
       </c>
-      <c r="F8" s="33" t="s">
+      <c r="F8" s="30" t="s">
         <v>741</v>
       </c>
-      <c r="G8" s="33">
+      <c r="G8" s="30">
         <v>53</v>
       </c>
-      <c r="H8" s="33">
+      <c r="H8" s="30">
         <v>43</v>
       </c>
-      <c r="I8" s="33">
+      <c r="I8" s="30">
         <v>24</v>
       </c>
-      <c r="J8" s="33">
+      <c r="J8" s="30">
         <v>14</v>
       </c>
-      <c r="K8" s="33">
+      <c r="K8" s="30">
         <v>13</v>
       </c>
-      <c r="L8" s="33">
+      <c r="L8" s="30">
         <v>22</v>
       </c>
-      <c r="M8" s="33">
+      <c r="M8" s="30">
         <v>12</v>
       </c>
-      <c r="N8" s="33">
+      <c r="N8" s="30">
         <v>20</v>
       </c>
-      <c r="O8" s="33">
+      <c r="O8" s="30">
         <v>30</v>
       </c>
-      <c r="P8" s="33">
+      <c r="P8" s="30">
         <v>6</v>
       </c>
-      <c r="Q8" s="33" t="s">
-        <v>739</v>
-      </c>
-      <c r="R8" s="33" t="s">
-        <v>738</v>
-      </c>
-      <c r="S8" s="33" t="s">
-        <v>739</v>
-      </c>
-      <c r="T8" s="33" t="s">
-        <v>739</v>
-      </c>
-    </row>
-    <row r="9" spans="1:20" ht="30" x14ac:dyDescent="0.2">
+      <c r="Q8" s="30" t="s">
+        <v>739</v>
+      </c>
+      <c r="R8" s="30" t="s">
+        <v>738</v>
+      </c>
+      <c r="S8" s="30" t="s">
+        <v>739</v>
+      </c>
+      <c r="T8" s="30" t="s">
+        <v>739</v>
+      </c>
+    </row>
+    <row r="9" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>794</v>
       </c>
@@ -21636,52 +23857,52 @@
       <c r="D9" t="s">
         <v>919</v>
       </c>
-      <c r="E9" s="33" t="s">
+      <c r="E9" s="30" t="s">
         <v>742</v>
       </c>
-      <c r="F9" s="33" t="s">
+      <c r="F9" s="30" t="s">
         <v>741</v>
       </c>
-      <c r="G9" s="33">
+      <c r="G9" s="30">
         <v>57</v>
       </c>
-      <c r="H9" s="33">
+      <c r="H9" s="30">
         <v>47</v>
       </c>
-      <c r="I9" s="33">
+      <c r="I9" s="30">
         <v>26</v>
       </c>
-      <c r="J9" s="33">
+      <c r="J9" s="30">
         <v>10</v>
       </c>
-      <c r="K9" s="33">
+      <c r="K9" s="30">
         <v>22</v>
       </c>
-      <c r="L9" s="33">
+      <c r="L9" s="30">
         <v>18</v>
       </c>
-      <c r="M9" s="33">
+      <c r="M9" s="30">
         <v>14</v>
       </c>
-      <c r="N9" s="33">
+      <c r="N9" s="30">
         <v>12</v>
       </c>
-      <c r="O9" s="33">
+      <c r="O9" s="30">
         <v>32</v>
       </c>
-      <c r="P9" s="33">
+      <c r="P9" s="30">
         <v>8</v>
       </c>
-      <c r="Q9" s="33" t="s">
-        <v>738</v>
-      </c>
-      <c r="R9" s="33" t="s">
-        <v>738</v>
-      </c>
-      <c r="S9" s="33" t="s">
-        <v>738</v>
-      </c>
-      <c r="T9" s="33" t="s">
+      <c r="Q9" s="30" t="s">
+        <v>738</v>
+      </c>
+      <c r="R9" s="30" t="s">
+        <v>738</v>
+      </c>
+      <c r="S9" s="30" t="s">
+        <v>738</v>
+      </c>
+      <c r="T9" s="30" t="s">
         <v>738</v>
       </c>
     </row>
@@ -21698,56 +23919,56 @@
       <c r="D10" t="s">
         <v>920</v>
       </c>
-      <c r="E10" s="33" t="s">
+      <c r="E10" s="30" t="s">
         <v>740</v>
       </c>
-      <c r="F10" s="33" t="s">
+      <c r="F10" s="30" t="s">
         <v>741</v>
       </c>
-      <c r="G10" s="33">
+      <c r="G10" s="30">
         <v>50</v>
       </c>
-      <c r="H10" s="33">
+      <c r="H10" s="30">
         <v>40</v>
       </c>
-      <c r="I10" s="33">
+      <c r="I10" s="30">
         <v>19</v>
       </c>
-      <c r="J10" s="33">
+      <c r="J10" s="30">
         <v>21</v>
       </c>
-      <c r="K10" s="33">
+      <c r="K10" s="30">
         <v>15</v>
       </c>
-      <c r="L10" s="33">
+      <c r="L10" s="30">
         <v>22</v>
       </c>
-      <c r="M10" s="33">
+      <c r="M10" s="30">
         <v>15</v>
       </c>
-      <c r="N10" s="33">
+      <c r="N10" s="30">
         <v>14</v>
       </c>
-      <c r="O10" s="33">
+      <c r="O10" s="30">
         <v>30</v>
       </c>
-      <c r="P10" s="33">
+      <c r="P10" s="30">
         <v>4</v>
       </c>
-      <c r="Q10" s="33" t="s">
-        <v>739</v>
-      </c>
-      <c r="R10" s="33" t="s">
-        <v>739</v>
-      </c>
-      <c r="S10" s="33" t="s">
-        <v>739</v>
-      </c>
-      <c r="T10" s="33" t="s">
-        <v>739</v>
-      </c>
-    </row>
-    <row r="11" spans="1:20" ht="30" x14ac:dyDescent="0.2">
+      <c r="Q10" s="30" t="s">
+        <v>739</v>
+      </c>
+      <c r="R10" s="30" t="s">
+        <v>739</v>
+      </c>
+      <c r="S10" s="30" t="s">
+        <v>739</v>
+      </c>
+      <c r="T10" s="30" t="s">
+        <v>739</v>
+      </c>
+    </row>
+    <row r="11" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>801</v>
       </c>
@@ -21760,52 +23981,52 @@
       <c r="D11" t="s">
         <v>921</v>
       </c>
-      <c r="E11" s="33" t="s">
+      <c r="E11" s="30" t="s">
         <v>742</v>
       </c>
-      <c r="F11" s="33" t="s">
+      <c r="F11" s="30" t="s">
         <v>741</v>
       </c>
-      <c r="G11" s="33">
+      <c r="G11" s="30">
         <v>56</v>
       </c>
-      <c r="H11" s="33">
+      <c r="H11" s="30">
         <v>46</v>
       </c>
-      <c r="I11" s="33">
+      <c r="I11" s="30">
         <v>29</v>
       </c>
-      <c r="J11" s="33">
+      <c r="J11" s="30">
         <v>10</v>
       </c>
-      <c r="K11" s="33">
+      <c r="K11" s="30">
         <v>12</v>
       </c>
-      <c r="L11" s="33">
+      <c r="L11" s="30">
         <v>25</v>
       </c>
-      <c r="M11" s="33">
+      <c r="M11" s="30">
         <v>12</v>
       </c>
-      <c r="N11" s="33">
+      <c r="N11" s="30">
         <v>11</v>
       </c>
-      <c r="O11" s="33">
+      <c r="O11" s="30">
         <v>25</v>
       </c>
-      <c r="P11" s="33">
+      <c r="P11" s="30">
         <v>0</v>
       </c>
-      <c r="Q11" s="33" t="s">
-        <v>738</v>
-      </c>
-      <c r="R11" s="33" t="s">
-        <v>739</v>
-      </c>
-      <c r="S11" s="33" t="s">
-        <v>738</v>
-      </c>
-      <c r="T11" s="33" t="s">
+      <c r="Q11" s="30" t="s">
+        <v>738</v>
+      </c>
+      <c r="R11" s="30" t="s">
+        <v>739</v>
+      </c>
+      <c r="S11" s="30" t="s">
+        <v>738</v>
+      </c>
+      <c r="T11" s="30" t="s">
         <v>738</v>
       </c>
     </row>
@@ -21822,56 +24043,56 @@
       <c r="D12" t="s">
         <v>922</v>
       </c>
-      <c r="E12" s="33" t="s">
+      <c r="E12" s="30" t="s">
         <v>740</v>
       </c>
-      <c r="F12" s="33" t="s">
+      <c r="F12" s="30" t="s">
         <v>741</v>
       </c>
-      <c r="G12" s="33">
+      <c r="G12" s="30">
         <v>51</v>
       </c>
-      <c r="H12" s="33">
+      <c r="H12" s="30">
         <v>41</v>
       </c>
-      <c r="I12" s="33">
+      <c r="I12" s="30">
         <v>15</v>
       </c>
-      <c r="J12" s="33">
+      <c r="J12" s="30">
         <v>20</v>
       </c>
-      <c r="K12" s="33">
+      <c r="K12" s="30">
         <v>14</v>
       </c>
-      <c r="L12" s="33">
+      <c r="L12" s="30">
         <v>20</v>
       </c>
-      <c r="M12" s="33">
+      <c r="M12" s="30">
         <v>14</v>
       </c>
-      <c r="N12" s="33">
+      <c r="N12" s="30">
         <v>15</v>
       </c>
-      <c r="O12" s="33">
+      <c r="O12" s="30">
         <v>28</v>
       </c>
-      <c r="P12" s="33">
+      <c r="P12" s="30">
         <v>4</v>
       </c>
-      <c r="Q12" s="33" t="s">
-        <v>739</v>
-      </c>
-      <c r="R12" s="33" t="s">
-        <v>738</v>
-      </c>
-      <c r="S12" s="33" t="s">
-        <v>739</v>
-      </c>
-      <c r="T12" s="33" t="s">
-        <v>739</v>
-      </c>
-    </row>
-    <row r="13" spans="1:20" ht="30" x14ac:dyDescent="0.2">
+      <c r="Q12" s="30" t="s">
+        <v>739</v>
+      </c>
+      <c r="R12" s="30" t="s">
+        <v>738</v>
+      </c>
+      <c r="S12" s="30" t="s">
+        <v>739</v>
+      </c>
+      <c r="T12" s="30" t="s">
+        <v>739</v>
+      </c>
+    </row>
+    <row r="13" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>806</v>
       </c>
@@ -21884,52 +24105,52 @@
       <c r="D13" t="s">
         <v>923</v>
       </c>
-      <c r="E13" s="33" t="s">
+      <c r="E13" s="30" t="s">
         <v>742</v>
       </c>
-      <c r="F13" s="33" t="s">
+      <c r="F13" s="30" t="s">
         <v>741</v>
       </c>
-      <c r="G13" s="33">
+      <c r="G13" s="30">
         <v>59</v>
       </c>
-      <c r="H13" s="33">
+      <c r="H13" s="30">
         <v>49</v>
       </c>
-      <c r="I13" s="33">
+      <c r="I13" s="30">
         <v>14</v>
       </c>
-      <c r="J13" s="33">
+      <c r="J13" s="30">
         <v>13</v>
       </c>
-      <c r="K13" s="33">
+      <c r="K13" s="30">
         <v>16</v>
       </c>
-      <c r="L13" s="33">
+      <c r="L13" s="30">
         <v>16</v>
       </c>
-      <c r="M13" s="33">
+      <c r="M13" s="30">
         <v>16</v>
       </c>
-      <c r="N13" s="33">
+      <c r="N13" s="30">
         <v>15</v>
       </c>
-      <c r="O13" s="33">
+      <c r="O13" s="30">
         <v>30</v>
       </c>
-      <c r="P13" s="33">
+      <c r="P13" s="30">
         <v>5</v>
       </c>
-      <c r="Q13" s="33" t="s">
-        <v>738</v>
-      </c>
-      <c r="R13" s="33" t="s">
-        <v>738</v>
-      </c>
-      <c r="S13" s="33" t="s">
-        <v>739</v>
-      </c>
-      <c r="T13" s="33" t="s">
+      <c r="Q13" s="30" t="s">
+        <v>738</v>
+      </c>
+      <c r="R13" s="30" t="s">
+        <v>738</v>
+      </c>
+      <c r="S13" s="30" t="s">
+        <v>739</v>
+      </c>
+      <c r="T13" s="30" t="s">
         <v>738</v>
       </c>
     </row>
@@ -21946,56 +24167,56 @@
       <c r="D14" t="s">
         <v>924</v>
       </c>
-      <c r="E14" s="33" t="s">
+      <c r="E14" s="30" t="s">
         <v>740</v>
       </c>
-      <c r="F14" s="33" t="s">
+      <c r="F14" s="30" t="s">
         <v>741</v>
       </c>
-      <c r="G14" s="33">
+      <c r="G14" s="30">
         <v>50</v>
       </c>
-      <c r="H14" s="33">
+      <c r="H14" s="30">
         <v>40</v>
       </c>
-      <c r="I14" s="33">
+      <c r="I14" s="30">
         <v>20</v>
       </c>
-      <c r="J14" s="33">
+      <c r="J14" s="30">
         <v>30</v>
       </c>
-      <c r="K14" s="33">
+      <c r="K14" s="30">
         <v>20</v>
       </c>
-      <c r="L14" s="33">
+      <c r="L14" s="30">
         <v>15</v>
       </c>
-      <c r="M14" s="33">
+      <c r="M14" s="30">
         <v>18</v>
       </c>
-      <c r="N14" s="33">
+      <c r="N14" s="30">
         <v>12</v>
       </c>
-      <c r="O14" s="33">
+      <c r="O14" s="30">
         <v>35</v>
       </c>
-      <c r="P14" s="33">
+      <c r="P14" s="30">
         <v>2</v>
       </c>
-      <c r="Q14" s="33" t="s">
-        <v>739</v>
-      </c>
-      <c r="R14" s="33" t="s">
-        <v>738</v>
-      </c>
-      <c r="S14" s="33" t="s">
-        <v>739</v>
-      </c>
-      <c r="T14" s="33" t="s">
-        <v>739</v>
-      </c>
-    </row>
-    <row r="15" spans="1:20" ht="30" x14ac:dyDescent="0.2">
+      <c r="Q14" s="30" t="s">
+        <v>739</v>
+      </c>
+      <c r="R14" s="30" t="s">
+        <v>738</v>
+      </c>
+      <c r="S14" s="30" t="s">
+        <v>739</v>
+      </c>
+      <c r="T14" s="30" t="s">
+        <v>739</v>
+      </c>
+    </row>
+    <row r="15" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
         <v>811</v>
       </c>
@@ -22008,52 +24229,52 @@
       <c r="D15" t="s">
         <v>925</v>
       </c>
-      <c r="E15" s="33" t="s">
+      <c r="E15" s="30" t="s">
         <v>742</v>
       </c>
-      <c r="F15" s="33" t="s">
+      <c r="F15" s="30" t="s">
         <v>741</v>
       </c>
-      <c r="G15" s="33">
+      <c r="G15" s="30">
         <v>52</v>
       </c>
-      <c r="H15" s="33">
+      <c r="H15" s="30">
         <v>42</v>
       </c>
-      <c r="I15" s="33">
+      <c r="I15" s="30">
         <v>11</v>
       </c>
-      <c r="J15" s="33">
+      <c r="J15" s="30">
         <v>11</v>
       </c>
-      <c r="K15" s="33">
+      <c r="K15" s="30">
         <v>18</v>
       </c>
-      <c r="L15" s="33">
+      <c r="L15" s="30">
         <v>12</v>
       </c>
-      <c r="M15" s="33">
+      <c r="M15" s="30">
         <v>12</v>
       </c>
-      <c r="N15" s="33">
+      <c r="N15" s="30">
         <v>15</v>
       </c>
-      <c r="O15" s="33">
+      <c r="O15" s="30">
         <v>30</v>
       </c>
-      <c r="P15" s="33">
+      <c r="P15" s="30">
         <v>1</v>
       </c>
-      <c r="Q15" s="33" t="s">
-        <v>738</v>
-      </c>
-      <c r="R15" s="33" t="s">
-        <v>739</v>
-      </c>
-      <c r="S15" s="33" t="s">
-        <v>738</v>
-      </c>
-      <c r="T15" s="33" t="s">
+      <c r="Q15" s="30" t="s">
+        <v>738</v>
+      </c>
+      <c r="R15" s="30" t="s">
+        <v>739</v>
+      </c>
+      <c r="S15" s="30" t="s">
+        <v>738</v>
+      </c>
+      <c r="T15" s="30" t="s">
         <v>738</v>
       </c>
     </row>
@@ -22070,56 +24291,56 @@
       <c r="D16" t="s">
         <v>912</v>
       </c>
-      <c r="E16" s="33" t="s">
+      <c r="E16" s="30" t="s">
         <v>740</v>
       </c>
-      <c r="F16" s="33" t="s">
+      <c r="F16" s="30" t="s">
         <v>741</v>
       </c>
-      <c r="G16" s="33">
+      <c r="G16" s="30">
         <v>48</v>
       </c>
-      <c r="H16" s="33">
+      <c r="H16" s="30">
         <v>38</v>
       </c>
-      <c r="I16" s="33">
+      <c r="I16" s="30">
         <v>28</v>
       </c>
-      <c r="J16" s="33">
+      <c r="J16" s="30">
         <v>25</v>
       </c>
-      <c r="K16" s="33">
+      <c r="K16" s="30">
         <v>30</v>
       </c>
-      <c r="L16" s="33">
+      <c r="L16" s="30">
         <v>26</v>
       </c>
-      <c r="M16" s="33">
+      <c r="M16" s="30">
         <v>24</v>
       </c>
-      <c r="N16" s="33">
+      <c r="N16" s="30">
         <v>22</v>
       </c>
-      <c r="O16" s="33">
+      <c r="O16" s="30">
         <v>30</v>
       </c>
-      <c r="P16" s="33">
+      <c r="P16" s="30">
         <v>3</v>
       </c>
-      <c r="Q16" s="33" t="s">
-        <v>739</v>
-      </c>
-      <c r="R16" s="33" t="s">
-        <v>738</v>
-      </c>
-      <c r="S16" s="33" t="s">
-        <v>739</v>
-      </c>
-      <c r="T16" s="33" t="s">
-        <v>739</v>
-      </c>
-    </row>
-    <row r="17" spans="1:20" ht="30" x14ac:dyDescent="0.2">
+      <c r="Q16" s="30" t="s">
+        <v>739</v>
+      </c>
+      <c r="R16" s="30" t="s">
+        <v>738</v>
+      </c>
+      <c r="S16" s="30" t="s">
+        <v>739</v>
+      </c>
+      <c r="T16" s="30" t="s">
+        <v>739</v>
+      </c>
+    </row>
+    <row r="17" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
         <v>798</v>
       </c>
@@ -22132,52 +24353,52 @@
       <c r="D17" t="s">
         <v>913</v>
       </c>
-      <c r="E17" s="33" t="s">
+      <c r="E17" s="30" t="s">
         <v>742</v>
       </c>
-      <c r="F17" s="33" t="s">
+      <c r="F17" s="30" t="s">
         <v>741</v>
       </c>
-      <c r="G17" s="33">
+      <c r="G17" s="30">
         <v>54</v>
       </c>
-      <c r="H17" s="33">
+      <c r="H17" s="30">
         <v>44</v>
       </c>
-      <c r="I17" s="33">
+      <c r="I17" s="30">
         <v>20</v>
       </c>
-      <c r="J17" s="33">
+      <c r="J17" s="30">
         <v>27</v>
       </c>
-      <c r="K17" s="33">
+      <c r="K17" s="30">
         <v>22</v>
       </c>
-      <c r="L17" s="33">
+      <c r="L17" s="30">
         <v>18</v>
       </c>
-      <c r="M17" s="33">
+      <c r="M17" s="30">
         <v>19</v>
       </c>
-      <c r="N17" s="33">
+      <c r="N17" s="30">
         <v>20</v>
       </c>
-      <c r="O17" s="33">
+      <c r="O17" s="30">
         <v>28</v>
       </c>
-      <c r="P17" s="33">
+      <c r="P17" s="30">
         <v>3</v>
       </c>
-      <c r="Q17" s="33" t="s">
-        <v>738</v>
-      </c>
-      <c r="R17" s="33" t="s">
-        <v>738</v>
-      </c>
-      <c r="S17" s="33" t="s">
-        <v>739</v>
-      </c>
-      <c r="T17" s="33" t="s">
+      <c r="Q17" s="30" t="s">
+        <v>738</v>
+      </c>
+      <c r="R17" s="30" t="s">
+        <v>738</v>
+      </c>
+      <c r="S17" s="30" t="s">
+        <v>739</v>
+      </c>
+      <c r="T17" s="30" t="s">
         <v>738</v>
       </c>
     </row>
@@ -22194,56 +24415,56 @@
       <c r="D18" t="s">
         <v>914</v>
       </c>
-      <c r="E18" s="33" t="s">
+      <c r="E18" s="30" t="s">
         <v>740</v>
       </c>
-      <c r="F18" s="33" t="s">
+      <c r="F18" s="30" t="s">
         <v>741</v>
       </c>
-      <c r="G18" s="33">
+      <c r="G18" s="30">
         <v>49</v>
       </c>
-      <c r="H18" s="33">
+      <c r="H18" s="30">
         <v>39</v>
       </c>
-      <c r="I18" s="33">
+      <c r="I18" s="30">
         <v>17</v>
       </c>
-      <c r="J18" s="33">
+      <c r="J18" s="30">
         <v>18</v>
       </c>
-      <c r="K18" s="33">
+      <c r="K18" s="30">
         <v>19</v>
       </c>
-      <c r="L18" s="33">
+      <c r="L18" s="30">
         <v>16</v>
       </c>
-      <c r="M18" s="33">
+      <c r="M18" s="30">
         <v>27</v>
       </c>
-      <c r="N18" s="33">
+      <c r="N18" s="30">
         <v>14</v>
       </c>
-      <c r="O18" s="33">
+      <c r="O18" s="30">
         <v>30</v>
       </c>
-      <c r="P18" s="33">
+      <c r="P18" s="30">
         <v>6</v>
       </c>
-      <c r="Q18" s="33" t="s">
-        <v>738</v>
-      </c>
-      <c r="R18" s="33" t="s">
-        <v>739</v>
-      </c>
-      <c r="S18" s="33" t="s">
-        <v>738</v>
-      </c>
-      <c r="T18" s="33" t="s">
-        <v>738</v>
-      </c>
-    </row>
-    <row r="19" spans="1:20" ht="30" x14ac:dyDescent="0.2">
+      <c r="Q18" s="30" t="s">
+        <v>738</v>
+      </c>
+      <c r="R18" s="30" t="s">
+        <v>739</v>
+      </c>
+      <c r="S18" s="30" t="s">
+        <v>738</v>
+      </c>
+      <c r="T18" s="30" t="s">
+        <v>738</v>
+      </c>
+    </row>
+    <row r="19" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
         <v>803</v>
       </c>
@@ -22256,52 +24477,52 @@
       <c r="D19" t="s">
         <v>915</v>
       </c>
-      <c r="E19" s="33" t="s">
+      <c r="E19" s="30" t="s">
         <v>742</v>
       </c>
-      <c r="F19" s="33" t="s">
+      <c r="F19" s="30" t="s">
         <v>741</v>
       </c>
-      <c r="G19" s="33">
+      <c r="G19" s="30">
         <v>55</v>
       </c>
-      <c r="H19" s="33">
+      <c r="H19" s="30">
         <v>45</v>
       </c>
-      <c r="I19" s="33">
+      <c r="I19" s="30">
         <v>15</v>
       </c>
-      <c r="J19" s="33">
+      <c r="J19" s="30">
         <v>13</v>
       </c>
-      <c r="K19" s="33">
+      <c r="K19" s="30">
         <v>14</v>
       </c>
-      <c r="L19" s="33">
+      <c r="L19" s="30">
         <v>19</v>
       </c>
-      <c r="M19" s="33">
+      <c r="M19" s="30">
         <v>15</v>
       </c>
-      <c r="N19" s="33">
+      <c r="N19" s="30">
         <v>16</v>
       </c>
-      <c r="O19" s="33">
+      <c r="O19" s="30">
         <v>25</v>
       </c>
-      <c r="P19" s="33">
+      <c r="P19" s="30">
         <v>5</v>
       </c>
-      <c r="Q19" s="33" t="s">
-        <v>739</v>
-      </c>
-      <c r="R19" s="33" t="s">
-        <v>738</v>
-      </c>
-      <c r="S19" s="33" t="s">
-        <v>738</v>
-      </c>
-      <c r="T19" s="33" t="s">
+      <c r="Q19" s="30" t="s">
+        <v>739</v>
+      </c>
+      <c r="R19" s="30" t="s">
+        <v>738</v>
+      </c>
+      <c r="S19" s="30" t="s">
+        <v>738</v>
+      </c>
+      <c r="T19" s="30" t="s">
         <v>739</v>
       </c>
     </row>
@@ -22318,56 +24539,56 @@
       <c r="D20" t="s">
         <v>916</v>
       </c>
-      <c r="E20" s="33" t="s">
+      <c r="E20" s="30" t="s">
         <v>740</v>
       </c>
-      <c r="F20" s="33" t="s">
+      <c r="F20" s="30" t="s">
         <v>741</v>
       </c>
-      <c r="G20" s="33">
+      <c r="G20" s="30">
         <v>50</v>
       </c>
-      <c r="H20" s="33">
+      <c r="H20" s="30">
         <v>40</v>
       </c>
-      <c r="I20" s="33">
+      <c r="I20" s="30">
         <v>22</v>
       </c>
-      <c r="J20" s="33">
+      <c r="J20" s="30">
         <v>19</v>
       </c>
-      <c r="K20" s="33">
+      <c r="K20" s="30">
         <v>17</v>
       </c>
-      <c r="L20" s="33">
+      <c r="L20" s="30">
         <v>20</v>
       </c>
-      <c r="M20" s="33">
+      <c r="M20" s="30">
         <v>10</v>
       </c>
-      <c r="N20" s="33">
+      <c r="N20" s="30">
         <v>15</v>
       </c>
-      <c r="O20" s="33">
+      <c r="O20" s="30">
         <v>30</v>
       </c>
-      <c r="P20" s="33">
+      <c r="P20" s="30">
         <v>2</v>
       </c>
-      <c r="Q20" s="33" t="s">
-        <v>738</v>
-      </c>
-      <c r="R20" s="33" t="s">
-        <v>738</v>
-      </c>
-      <c r="S20" s="33" t="s">
-        <v>739</v>
-      </c>
-      <c r="T20" s="33" t="s">
-        <v>738</v>
-      </c>
-    </row>
-    <row r="21" spans="1:20" ht="30" x14ac:dyDescent="0.2">
+      <c r="Q20" s="30" t="s">
+        <v>738</v>
+      </c>
+      <c r="R20" s="30" t="s">
+        <v>738</v>
+      </c>
+      <c r="S20" s="30" t="s">
+        <v>739</v>
+      </c>
+      <c r="T20" s="30" t="s">
+        <v>738</v>
+      </c>
+    </row>
+    <row r="21" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
         <v>809</v>
       </c>
@@ -22380,52 +24601,52 @@
       <c r="D21" t="s">
         <v>917</v>
       </c>
-      <c r="E21" s="33" t="s">
+      <c r="E21" s="30" t="s">
         <v>742</v>
       </c>
-      <c r="F21" s="33" t="s">
+      <c r="F21" s="30" t="s">
         <v>741</v>
       </c>
-      <c r="G21" s="33">
+      <c r="G21" s="30">
         <v>53</v>
       </c>
-      <c r="H21" s="33">
+      <c r="H21" s="30">
         <v>43</v>
       </c>
-      <c r="I21" s="33">
+      <c r="I21" s="30">
         <v>20</v>
       </c>
-      <c r="J21" s="33">
+      <c r="J21" s="30">
         <v>30</v>
       </c>
-      <c r="K21" s="33">
+      <c r="K21" s="30">
         <v>16</v>
       </c>
-      <c r="L21" s="33">
+      <c r="L21" s="30">
         <v>21</v>
       </c>
-      <c r="M21" s="33">
+      <c r="M21" s="30">
         <v>15</v>
       </c>
-      <c r="N21" s="33">
+      <c r="N21" s="30">
         <v>13</v>
       </c>
-      <c r="O21" s="33">
+      <c r="O21" s="30">
         <v>28</v>
       </c>
-      <c r="P21" s="33">
+      <c r="P21" s="30">
         <v>4</v>
       </c>
-      <c r="Q21" s="33" t="s">
-        <v>738</v>
-      </c>
-      <c r="R21" s="33" t="s">
-        <v>738</v>
-      </c>
-      <c r="S21" s="33" t="s">
-        <v>738</v>
-      </c>
-      <c r="T21" s="33" t="s">
+      <c r="Q21" s="30" t="s">
+        <v>738</v>
+      </c>
+      <c r="R21" s="30" t="s">
+        <v>738</v>
+      </c>
+      <c r="S21" s="30" t="s">
+        <v>738</v>
+      </c>
+      <c r="T21" s="30" t="s">
         <v>738</v>
       </c>
     </row>
@@ -22442,56 +24663,56 @@
       <c r="D22" t="s">
         <v>918</v>
       </c>
-      <c r="E22" s="33" t="s">
+      <c r="E22" s="30" t="s">
         <v>740</v>
       </c>
-      <c r="F22" s="33" t="s">
+      <c r="F22" s="30" t="s">
         <v>741</v>
       </c>
-      <c r="G22" s="33">
+      <c r="G22" s="30">
         <v>49</v>
       </c>
-      <c r="H22" s="33">
+      <c r="H22" s="30">
         <v>39</v>
       </c>
-      <c r="I22" s="33">
+      <c r="I22" s="30">
         <v>10</v>
       </c>
-      <c r="J22" s="33">
+      <c r="J22" s="30">
         <v>12</v>
       </c>
-      <c r="K22" s="33">
+      <c r="K22" s="30">
         <v>22</v>
       </c>
-      <c r="L22" s="33">
+      <c r="L22" s="30">
         <v>15</v>
       </c>
-      <c r="M22" s="33">
+      <c r="M22" s="30">
         <v>20</v>
       </c>
-      <c r="N22" s="33">
+      <c r="N22" s="30">
         <v>16</v>
       </c>
-      <c r="O22" s="33">
+      <c r="O22" s="30">
         <v>25</v>
       </c>
-      <c r="P22" s="33">
+      <c r="P22" s="30">
         <v>5</v>
       </c>
-      <c r="Q22" s="33" t="s">
-        <v>739</v>
-      </c>
-      <c r="R22" s="33" t="s">
-        <v>739</v>
-      </c>
-      <c r="S22" s="33" t="s">
-        <v>739</v>
-      </c>
-      <c r="T22" s="33" t="s">
-        <v>739</v>
-      </c>
-    </row>
-    <row r="23" spans="1:20" ht="30" x14ac:dyDescent="0.2">
+      <c r="Q22" s="30" t="s">
+        <v>739</v>
+      </c>
+      <c r="R22" s="30" t="s">
+        <v>739</v>
+      </c>
+      <c r="S22" s="30" t="s">
+        <v>739</v>
+      </c>
+      <c r="T22" s="30" t="s">
+        <v>739</v>
+      </c>
+    </row>
+    <row r="23" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
         <v>794</v>
       </c>
@@ -22504,52 +24725,52 @@
       <c r="D23" t="s">
         <v>919</v>
       </c>
-      <c r="E23" s="33" t="s">
+      <c r="E23" s="30" t="s">
         <v>742</v>
       </c>
-      <c r="F23" s="33" t="s">
+      <c r="F23" s="30" t="s">
         <v>741</v>
       </c>
-      <c r="G23" s="33">
+      <c r="G23" s="30">
         <v>56</v>
       </c>
-      <c r="H23" s="33">
+      <c r="H23" s="30">
         <v>46</v>
       </c>
-      <c r="I23" s="33">
+      <c r="I23" s="30">
         <v>18</v>
       </c>
-      <c r="J23" s="33">
+      <c r="J23" s="30">
         <v>15</v>
       </c>
-      <c r="K23" s="33">
+      <c r="K23" s="30">
         <v>10</v>
       </c>
-      <c r="L23" s="33">
+      <c r="L23" s="30">
         <v>15</v>
       </c>
-      <c r="M23" s="33">
+      <c r="M23" s="30">
         <v>10</v>
       </c>
-      <c r="N23" s="33">
+      <c r="N23" s="30">
         <v>13</v>
       </c>
-      <c r="O23" s="33">
+      <c r="O23" s="30">
         <v>30</v>
       </c>
-      <c r="P23" s="33">
+      <c r="P23" s="30">
         <v>6</v>
       </c>
-      <c r="Q23" s="33" t="s">
-        <v>738</v>
-      </c>
-      <c r="R23" s="33" t="s">
-        <v>739</v>
-      </c>
-      <c r="S23" s="33" t="s">
-        <v>738</v>
-      </c>
-      <c r="T23" s="33" t="s">
+      <c r="Q23" s="30" t="s">
+        <v>738</v>
+      </c>
+      <c r="R23" s="30" t="s">
+        <v>739</v>
+      </c>
+      <c r="S23" s="30" t="s">
+        <v>738</v>
+      </c>
+      <c r="T23" s="30" t="s">
         <v>738</v>
       </c>
     </row>
@@ -22566,56 +24787,56 @@
       <c r="D24" t="s">
         <v>920</v>
       </c>
-      <c r="E24" s="33" t="s">
+      <c r="E24" s="30" t="s">
         <v>740</v>
       </c>
-      <c r="F24" s="33" t="s">
+      <c r="F24" s="30" t="s">
         <v>741</v>
       </c>
-      <c r="G24" s="33">
+      <c r="G24" s="30">
         <v>52</v>
       </c>
-      <c r="H24" s="33">
+      <c r="H24" s="30">
         <v>42</v>
       </c>
-      <c r="I24" s="33">
+      <c r="I24" s="30">
         <v>12</v>
       </c>
-      <c r="J24" s="33">
+      <c r="J24" s="30">
         <v>16</v>
       </c>
-      <c r="K24" s="33">
+      <c r="K24" s="30">
         <v>20</v>
       </c>
-      <c r="L24" s="33">
+      <c r="L24" s="30">
         <v>15</v>
       </c>
-      <c r="M24" s="33">
+      <c r="M24" s="30">
         <v>19</v>
       </c>
-      <c r="N24" s="33">
+      <c r="N24" s="30">
         <v>17</v>
       </c>
-      <c r="O24" s="33">
+      <c r="O24" s="30">
         <v>26</v>
       </c>
-      <c r="P24" s="33">
+      <c r="P24" s="30">
         <v>4</v>
       </c>
-      <c r="Q24" s="33" t="s">
-        <v>739</v>
-      </c>
-      <c r="R24" s="33" t="s">
-        <v>738</v>
-      </c>
-      <c r="S24" s="33" t="s">
-        <v>739</v>
-      </c>
-      <c r="T24" s="33" t="s">
-        <v>739</v>
-      </c>
-    </row>
-    <row r="25" spans="1:20" ht="30" x14ac:dyDescent="0.2">
+      <c r="Q24" s="30" t="s">
+        <v>739</v>
+      </c>
+      <c r="R24" s="30" t="s">
+        <v>738</v>
+      </c>
+      <c r="S24" s="30" t="s">
+        <v>739</v>
+      </c>
+      <c r="T24" s="30" t="s">
+        <v>739</v>
+      </c>
+    </row>
+    <row r="25" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
         <v>801</v>
       </c>
@@ -22628,52 +24849,52 @@
       <c r="D25" t="s">
         <v>921</v>
       </c>
-      <c r="E25" s="33" t="s">
+      <c r="E25" s="30" t="s">
         <v>742</v>
       </c>
-      <c r="F25" s="33" t="s">
+      <c r="F25" s="30" t="s">
         <v>741</v>
       </c>
-      <c r="G25" s="33">
+      <c r="G25" s="30">
         <v>55</v>
       </c>
-      <c r="H25" s="33">
+      <c r="H25" s="30">
         <v>45</v>
       </c>
-      <c r="I25" s="33">
+      <c r="I25" s="30">
         <v>12</v>
       </c>
-      <c r="J25" s="33">
+      <c r="J25" s="30">
         <v>15</v>
       </c>
-      <c r="K25" s="33">
+      <c r="K25" s="30">
         <v>11</v>
       </c>
-      <c r="L25" s="33">
+      <c r="L25" s="30">
         <v>10</v>
       </c>
-      <c r="M25" s="33">
+      <c r="M25" s="30">
         <v>14</v>
       </c>
-      <c r="N25" s="33">
+      <c r="N25" s="30">
         <v>13</v>
       </c>
-      <c r="O25" s="33">
+      <c r="O25" s="30">
         <v>30</v>
       </c>
-      <c r="P25" s="33">
+      <c r="P25" s="30">
         <v>2</v>
       </c>
-      <c r="Q25" s="33" t="s">
-        <v>738</v>
-      </c>
-      <c r="R25" s="33" t="s">
-        <v>739</v>
-      </c>
-      <c r="S25" s="33" t="s">
-        <v>738</v>
-      </c>
-      <c r="T25" s="33" t="s">
+      <c r="Q25" s="30" t="s">
+        <v>738</v>
+      </c>
+      <c r="R25" s="30" t="s">
+        <v>739</v>
+      </c>
+      <c r="S25" s="30" t="s">
+        <v>738</v>
+      </c>
+      <c r="T25" s="30" t="s">
         <v>738</v>
       </c>
     </row>
@@ -22690,56 +24911,56 @@
       <c r="D26" t="s">
         <v>922</v>
       </c>
-      <c r="E26" s="33" t="s">
+      <c r="E26" s="30" t="s">
         <v>740</v>
       </c>
-      <c r="F26" s="33" t="s">
+      <c r="F26" s="30" t="s">
         <v>741</v>
       </c>
-      <c r="G26" s="33">
+      <c r="G26" s="30">
         <v>51</v>
       </c>
-      <c r="H26" s="33">
+      <c r="H26" s="30">
         <v>41</v>
       </c>
-      <c r="I26" s="33">
+      <c r="I26" s="30">
         <v>25</v>
       </c>
-      <c r="J26" s="33">
+      <c r="J26" s="30">
         <v>15</v>
       </c>
-      <c r="K26" s="33">
+      <c r="K26" s="30">
         <v>22</v>
       </c>
-      <c r="L26" s="33">
+      <c r="L26" s="30">
         <v>20</v>
       </c>
-      <c r="M26" s="33">
+      <c r="M26" s="30">
         <v>21</v>
       </c>
-      <c r="N26" s="33">
+      <c r="N26" s="30">
         <v>20</v>
       </c>
-      <c r="O26" s="33">
+      <c r="O26" s="30">
         <v>32</v>
       </c>
-      <c r="P26" s="33">
+      <c r="P26" s="30">
         <v>5</v>
       </c>
-      <c r="Q26" s="33" t="s">
-        <v>739</v>
-      </c>
-      <c r="R26" s="33" t="s">
-        <v>738</v>
-      </c>
-      <c r="S26" s="33" t="s">
-        <v>739</v>
-      </c>
-      <c r="T26" s="33" t="s">
-        <v>739</v>
-      </c>
-    </row>
-    <row r="27" spans="1:20" ht="30" x14ac:dyDescent="0.2">
+      <c r="Q26" s="30" t="s">
+        <v>739</v>
+      </c>
+      <c r="R26" s="30" t="s">
+        <v>738</v>
+      </c>
+      <c r="S26" s="30" t="s">
+        <v>739</v>
+      </c>
+      <c r="T26" s="30" t="s">
+        <v>739</v>
+      </c>
+    </row>
+    <row r="27" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
         <v>806</v>
       </c>
@@ -22752,52 +24973,52 @@
       <c r="D27" t="s">
         <v>923</v>
       </c>
-      <c r="E27" s="33" t="s">
+      <c r="E27" s="30" t="s">
         <v>742</v>
       </c>
-      <c r="F27" s="33" t="s">
+      <c r="F27" s="30" t="s">
         <v>741</v>
       </c>
-      <c r="G27" s="33">
+      <c r="G27" s="30">
         <v>58</v>
       </c>
-      <c r="H27" s="33">
+      <c r="H27" s="30">
         <v>48</v>
       </c>
-      <c r="I27" s="33">
+      <c r="I27" s="30">
         <v>14</v>
       </c>
-      <c r="J27" s="33">
+      <c r="J27" s="30">
         <v>18</v>
       </c>
-      <c r="K27" s="33">
+      <c r="K27" s="30">
         <v>24</v>
       </c>
-      <c r="L27" s="33">
+      <c r="L27" s="30">
         <v>15</v>
       </c>
-      <c r="M27" s="33">
+      <c r="M27" s="30">
         <v>10</v>
       </c>
-      <c r="N27" s="33">
+      <c r="N27" s="30">
         <v>15</v>
       </c>
-      <c r="O27" s="33">
+      <c r="O27" s="30">
         <v>30</v>
       </c>
-      <c r="P27" s="33">
+      <c r="P27" s="30">
         <v>5</v>
       </c>
-      <c r="Q27" s="33" t="s">
-        <v>738</v>
-      </c>
-      <c r="R27" s="33" t="s">
-        <v>738</v>
-      </c>
-      <c r="S27" s="33" t="s">
-        <v>738</v>
-      </c>
-      <c r="T27" s="33" t="s">
+      <c r="Q27" s="30" t="s">
+        <v>738</v>
+      </c>
+      <c r="R27" s="30" t="s">
+        <v>738</v>
+      </c>
+      <c r="S27" s="30" t="s">
+        <v>738</v>
+      </c>
+      <c r="T27" s="30" t="s">
         <v>738</v>
       </c>
     </row>
@@ -22814,56 +25035,56 @@
       <c r="D28" t="s">
         <v>924</v>
       </c>
-      <c r="E28" s="33" t="s">
+      <c r="E28" s="30" t="s">
         <v>740</v>
       </c>
-      <c r="F28" s="33" t="s">
+      <c r="F28" s="30" t="s">
         <v>741</v>
       </c>
-      <c r="G28" s="33">
+      <c r="G28" s="30">
         <v>50</v>
       </c>
-      <c r="H28" s="33">
+      <c r="H28" s="30">
         <v>40</v>
       </c>
-      <c r="I28" s="33">
+      <c r="I28" s="30">
         <v>18</v>
       </c>
-      <c r="J28" s="33">
+      <c r="J28" s="30">
         <v>15</v>
       </c>
-      <c r="K28" s="33">
+      <c r="K28" s="30">
         <v>13</v>
       </c>
-      <c r="L28" s="33">
+      <c r="L28" s="30">
         <v>20</v>
       </c>
-      <c r="M28" s="33">
+      <c r="M28" s="30">
         <v>19</v>
       </c>
-      <c r="N28" s="33">
+      <c r="N28" s="30">
         <v>12</v>
       </c>
-      <c r="O28" s="33">
+      <c r="O28" s="30">
         <v>30</v>
       </c>
-      <c r="P28" s="33">
+      <c r="P28" s="30">
         <v>4</v>
       </c>
-      <c r="Q28" s="33" t="s">
-        <v>739</v>
-      </c>
-      <c r="R28" s="33" t="s">
-        <v>738</v>
-      </c>
-      <c r="S28" s="33" t="s">
-        <v>739</v>
-      </c>
-      <c r="T28" s="33" t="s">
-        <v>739</v>
-      </c>
-    </row>
-    <row r="29" spans="1:20" ht="30" x14ac:dyDescent="0.2">
+      <c r="Q28" s="30" t="s">
+        <v>739</v>
+      </c>
+      <c r="R28" s="30" t="s">
+        <v>738</v>
+      </c>
+      <c r="S28" s="30" t="s">
+        <v>739</v>
+      </c>
+      <c r="T28" s="30" t="s">
+        <v>739</v>
+      </c>
+    </row>
+    <row r="29" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
         <v>811</v>
       </c>
@@ -22876,52 +25097,52 @@
       <c r="D29" t="s">
         <v>925</v>
       </c>
-      <c r="E29" s="33" t="s">
+      <c r="E29" s="30" t="s">
         <v>742</v>
       </c>
-      <c r="F29" s="33" t="s">
+      <c r="F29" s="30" t="s">
         <v>741</v>
       </c>
-      <c r="G29" s="33">
+      <c r="G29" s="30">
         <v>52</v>
       </c>
-      <c r="H29" s="33">
+      <c r="H29" s="30">
         <v>42</v>
       </c>
-      <c r="I29" s="33">
+      <c r="I29" s="30">
         <v>12</v>
       </c>
-      <c r="J29" s="33">
+      <c r="J29" s="30">
         <v>11</v>
       </c>
-      <c r="K29" s="33">
+      <c r="K29" s="30">
         <v>15</v>
       </c>
-      <c r="L29" s="33">
+      <c r="L29" s="30">
         <v>14</v>
       </c>
-      <c r="M29" s="33">
+      <c r="M29" s="30">
         <v>15</v>
       </c>
-      <c r="N29" s="33">
+      <c r="N29" s="30">
         <v>10</v>
       </c>
-      <c r="O29" s="33">
+      <c r="O29" s="30">
         <v>30</v>
       </c>
-      <c r="P29" s="33">
+      <c r="P29" s="30">
         <v>5</v>
       </c>
-      <c r="Q29" s="33" t="s">
-        <v>738</v>
-      </c>
-      <c r="R29" s="33" t="s">
-        <v>738</v>
-      </c>
-      <c r="S29" s="33" t="s">
-        <v>738</v>
-      </c>
-      <c r="T29" s="33" t="s">
+      <c r="Q29" s="30" t="s">
+        <v>738</v>
+      </c>
+      <c r="R29" s="30" t="s">
+        <v>738</v>
+      </c>
+      <c r="S29" s="30" t="s">
+        <v>738</v>
+      </c>
+      <c r="T29" s="30" t="s">
         <v>738</v>
       </c>
     </row>
@@ -22938,56 +25159,56 @@
       <c r="D30" t="s">
         <v>912</v>
       </c>
-      <c r="E30" s="33" t="s">
+      <c r="E30" s="30" t="s">
         <v>740</v>
       </c>
-      <c r="F30" s="33" t="s">
+      <c r="F30" s="30" t="s">
         <v>741</v>
       </c>
-      <c r="G30" s="33">
+      <c r="G30" s="30">
         <v>53</v>
       </c>
-      <c r="H30" s="33">
+      <c r="H30" s="30">
         <v>43</v>
       </c>
-      <c r="I30" s="33">
+      <c r="I30" s="30">
         <v>21</v>
       </c>
-      <c r="J30" s="33">
+      <c r="J30" s="30">
         <v>18</v>
       </c>
-      <c r="K30" s="33">
+      <c r="K30" s="30">
         <v>25</v>
       </c>
-      <c r="L30" s="33">
+      <c r="L30" s="30">
         <v>20</v>
       </c>
-      <c r="M30" s="33">
+      <c r="M30" s="30">
         <v>20</v>
       </c>
-      <c r="N30" s="33">
+      <c r="N30" s="30">
         <v>18</v>
       </c>
-      <c r="O30" s="33">
+      <c r="O30" s="30">
         <v>30</v>
       </c>
-      <c r="P30" s="33">
+      <c r="P30" s="30">
         <v>3</v>
       </c>
-      <c r="Q30" s="33" t="s">
-        <v>739</v>
-      </c>
-      <c r="R30" s="33" t="s">
-        <v>738</v>
-      </c>
-      <c r="S30" s="33" t="s">
-        <v>739</v>
-      </c>
-      <c r="T30" s="33" t="s">
-        <v>739</v>
-      </c>
-    </row>
-    <row r="31" spans="1:20" ht="30" x14ac:dyDescent="0.2">
+      <c r="Q30" s="30" t="s">
+        <v>739</v>
+      </c>
+      <c r="R30" s="30" t="s">
+        <v>738</v>
+      </c>
+      <c r="S30" s="30" t="s">
+        <v>739</v>
+      </c>
+      <c r="T30" s="30" t="s">
+        <v>739</v>
+      </c>
+    </row>
+    <row r="31" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
         <v>798</v>
       </c>
@@ -23000,52 +25221,52 @@
       <c r="D31" t="s">
         <v>913</v>
       </c>
-      <c r="E31" s="33" t="s">
+      <c r="E31" s="30" t="s">
         <v>742</v>
       </c>
-      <c r="F31" s="33" t="s">
+      <c r="F31" s="30" t="s">
         <v>741</v>
       </c>
-      <c r="G31" s="33">
+      <c r="G31" s="30">
         <v>60</v>
       </c>
-      <c r="H31" s="33">
+      <c r="H31" s="30">
         <v>50</v>
       </c>
-      <c r="I31" s="33">
+      <c r="I31" s="30">
         <v>10</v>
       </c>
-      <c r="J31" s="33">
+      <c r="J31" s="30">
         <v>12</v>
       </c>
-      <c r="K31" s="33">
+      <c r="K31" s="30">
         <v>14</v>
       </c>
-      <c r="L31" s="33">
+      <c r="L31" s="30">
         <v>9</v>
       </c>
-      <c r="M31" s="33">
+      <c r="M31" s="30">
         <v>10</v>
       </c>
-      <c r="N31" s="33">
+      <c r="N31" s="30">
         <v>11</v>
       </c>
-      <c r="O31" s="33">
+      <c r="O31" s="30">
         <v>30</v>
       </c>
-      <c r="P31" s="33">
+      <c r="P31" s="30">
         <v>2</v>
       </c>
-      <c r="Q31" s="33" t="s">
-        <v>738</v>
-      </c>
-      <c r="R31" s="33" t="s">
-        <v>739</v>
-      </c>
-      <c r="S31" s="33" t="s">
-        <v>738</v>
-      </c>
-      <c r="T31" s="33" t="s">
+      <c r="Q31" s="30" t="s">
+        <v>738</v>
+      </c>
+      <c r="R31" s="30" t="s">
+        <v>739</v>
+      </c>
+      <c r="S31" s="30" t="s">
+        <v>738</v>
+      </c>
+      <c r="T31" s="30" t="s">
         <v>738</v>
       </c>
     </row>
@@ -23062,56 +25283,56 @@
       <c r="D32" t="s">
         <v>914</v>
       </c>
-      <c r="E32" s="33" t="s">
+      <c r="E32" s="30" t="s">
         <v>740</v>
       </c>
-      <c r="F32" s="33" t="s">
+      <c r="F32" s="30" t="s">
         <v>741</v>
       </c>
-      <c r="G32" s="33">
+      <c r="G32" s="30">
         <v>54</v>
       </c>
-      <c r="H32" s="33">
+      <c r="H32" s="30">
         <v>44</v>
       </c>
-      <c r="I32" s="33">
+      <c r="I32" s="30">
         <v>25</v>
       </c>
-      <c r="J32" s="33">
+      <c r="J32" s="30">
         <v>15</v>
       </c>
-      <c r="K32" s="33">
+      <c r="K32" s="30">
         <v>19</v>
       </c>
-      <c r="L32" s="33">
+      <c r="L32" s="30">
         <v>20</v>
       </c>
-      <c r="M32" s="33">
+      <c r="M32" s="30">
         <v>22</v>
       </c>
-      <c r="N32" s="33">
+      <c r="N32" s="30">
         <v>18</v>
       </c>
-      <c r="O32" s="33">
+      <c r="O32" s="30">
         <v>29</v>
       </c>
-      <c r="P32" s="33">
+      <c r="P32" s="30">
         <v>1</v>
       </c>
-      <c r="Q32" s="33" t="s">
-        <v>738</v>
-      </c>
-      <c r="R32" s="33" t="s">
-        <v>738</v>
-      </c>
-      <c r="S32" s="33" t="s">
-        <v>739</v>
-      </c>
-      <c r="T32" s="33" t="s">
-        <v>738</v>
-      </c>
-    </row>
-    <row r="33" spans="1:20" ht="30" x14ac:dyDescent="0.2">
+      <c r="Q32" s="30" t="s">
+        <v>738</v>
+      </c>
+      <c r="R32" s="30" t="s">
+        <v>738</v>
+      </c>
+      <c r="S32" s="30" t="s">
+        <v>739</v>
+      </c>
+      <c r="T32" s="30" t="s">
+        <v>738</v>
+      </c>
+    </row>
+    <row r="33" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
         <v>803</v>
       </c>
@@ -23124,52 +25345,52 @@
       <c r="D33" t="s">
         <v>915</v>
       </c>
-      <c r="E33" s="33" t="s">
+      <c r="E33" s="30" t="s">
         <v>742</v>
       </c>
-      <c r="F33" s="33" t="s">
+      <c r="F33" s="30" t="s">
         <v>741</v>
       </c>
-      <c r="G33" s="33">
+      <c r="G33" s="30">
         <v>58</v>
       </c>
-      <c r="H33" s="33">
+      <c r="H33" s="30">
         <v>48</v>
       </c>
-      <c r="I33" s="33">
+      <c r="I33" s="30">
         <v>18</v>
       </c>
-      <c r="J33" s="33">
+      <c r="J33" s="30">
         <v>22</v>
       </c>
-      <c r="K33" s="33">
+      <c r="K33" s="30">
         <v>20</v>
       </c>
-      <c r="L33" s="33">
+      <c r="L33" s="30">
         <v>15</v>
       </c>
-      <c r="M33" s="33">
+      <c r="M33" s="30">
         <v>18</v>
       </c>
-      <c r="N33" s="33">
+      <c r="N33" s="30">
         <v>20</v>
       </c>
-      <c r="O33" s="33">
+      <c r="O33" s="30">
         <v>28</v>
       </c>
-      <c r="P33" s="33">
+      <c r="P33" s="30">
         <v>3</v>
       </c>
-      <c r="Q33" s="33" t="s">
-        <v>739</v>
-      </c>
-      <c r="R33" s="33" t="s">
-        <v>738</v>
-      </c>
-      <c r="S33" s="33" t="s">
-        <v>738</v>
-      </c>
-      <c r="T33" s="33" t="s">
+      <c r="Q33" s="30" t="s">
+        <v>739</v>
+      </c>
+      <c r="R33" s="30" t="s">
+        <v>738</v>
+      </c>
+      <c r="S33" s="30" t="s">
+        <v>738</v>
+      </c>
+      <c r="T33" s="30" t="s">
         <v>738</v>
       </c>
     </row>
@@ -23186,56 +25407,56 @@
       <c r="D34" t="s">
         <v>916</v>
       </c>
-      <c r="E34" s="33" t="s">
+      <c r="E34" s="30" t="s">
         <v>740</v>
       </c>
-      <c r="F34" s="33" t="s">
+      <c r="F34" s="30" t="s">
         <v>741</v>
       </c>
-      <c r="G34" s="33">
+      <c r="G34" s="30">
         <v>50</v>
       </c>
-      <c r="H34" s="33">
+      <c r="H34" s="30">
         <v>40</v>
       </c>
-      <c r="I34" s="33">
+      <c r="I34" s="30">
         <v>19</v>
       </c>
-      <c r="J34" s="33">
+      <c r="J34" s="30">
         <v>20</v>
       </c>
-      <c r="K34" s="33">
+      <c r="K34" s="30">
         <v>22</v>
       </c>
-      <c r="L34" s="33">
+      <c r="L34" s="30">
         <v>20</v>
       </c>
-      <c r="M34" s="33">
+      <c r="M34" s="30">
         <v>22</v>
       </c>
-      <c r="N34" s="33">
+      <c r="N34" s="30">
         <v>15</v>
       </c>
-      <c r="O34" s="33">
+      <c r="O34" s="30">
         <v>30</v>
       </c>
-      <c r="P34" s="33">
+      <c r="P34" s="30">
         <v>4</v>
       </c>
-      <c r="Q34" s="33" t="s">
-        <v>738</v>
-      </c>
-      <c r="R34" s="33" t="s">
-        <v>738</v>
-      </c>
-      <c r="S34" s="33" t="s">
-        <v>739</v>
-      </c>
-      <c r="T34" s="33" t="s">
-        <v>738</v>
-      </c>
-    </row>
-    <row r="35" spans="1:20" ht="30" x14ac:dyDescent="0.2">
+      <c r="Q34" s="30" t="s">
+        <v>738</v>
+      </c>
+      <c r="R34" s="30" t="s">
+        <v>738</v>
+      </c>
+      <c r="S34" s="30" t="s">
+        <v>739</v>
+      </c>
+      <c r="T34" s="30" t="s">
+        <v>738</v>
+      </c>
+    </row>
+    <row r="35" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
         <v>809</v>
       </c>
@@ -23248,52 +25469,52 @@
       <c r="D35" t="s">
         <v>917</v>
       </c>
-      <c r="E35" s="33" t="s">
+      <c r="E35" s="30" t="s">
         <v>742</v>
       </c>
-      <c r="F35" s="33" t="s">
+      <c r="F35" s="30" t="s">
         <v>741</v>
       </c>
-      <c r="G35" s="33">
+      <c r="G35" s="30">
         <v>53</v>
       </c>
-      <c r="H35" s="33">
+      <c r="H35" s="30">
         <v>43</v>
       </c>
-      <c r="I35" s="33">
+      <c r="I35" s="30">
         <v>12</v>
       </c>
-      <c r="J35" s="33">
+      <c r="J35" s="30">
         <v>14</v>
       </c>
-      <c r="K35" s="33">
+      <c r="K35" s="30">
         <v>15</v>
       </c>
-      <c r="L35" s="33">
+      <c r="L35" s="30">
         <v>11</v>
       </c>
-      <c r="M35" s="33">
+      <c r="M35" s="30">
         <v>13</v>
       </c>
-      <c r="N35" s="33">
+      <c r="N35" s="30">
         <v>17</v>
       </c>
-      <c r="O35" s="33">
+      <c r="O35" s="30">
         <v>25</v>
       </c>
-      <c r="P35" s="33">
+      <c r="P35" s="30">
         <v>5</v>
       </c>
-      <c r="Q35" s="33" t="s">
-        <v>739</v>
-      </c>
-      <c r="R35" s="33" t="s">
-        <v>739</v>
-      </c>
-      <c r="S35" s="33" t="s">
-        <v>738</v>
-      </c>
-      <c r="T35" s="33" t="s">
+      <c r="Q35" s="30" t="s">
+        <v>739</v>
+      </c>
+      <c r="R35" s="30" t="s">
+        <v>739</v>
+      </c>
+      <c r="S35" s="30" t="s">
+        <v>738</v>
+      </c>
+      <c r="T35" s="30" t="s">
         <v>738</v>
       </c>
     </row>
@@ -23310,56 +25531,56 @@
       <c r="D36" t="s">
         <v>918</v>
       </c>
-      <c r="E36" s="33" t="s">
+      <c r="E36" s="30" t="s">
         <v>740</v>
       </c>
-      <c r="F36" s="33" t="s">
+      <c r="F36" s="30" t="s">
         <v>741</v>
       </c>
-      <c r="G36" s="33">
+      <c r="G36" s="30">
         <v>55</v>
       </c>
-      <c r="H36" s="33">
+      <c r="H36" s="30">
         <v>45</v>
       </c>
-      <c r="I36" s="33">
+      <c r="I36" s="30">
         <v>22</v>
       </c>
-      <c r="J36" s="33">
+      <c r="J36" s="30">
         <v>17</v>
       </c>
-      <c r="K36" s="33">
+      <c r="K36" s="30">
         <v>14</v>
       </c>
-      <c r="L36" s="33">
+      <c r="L36" s="30">
         <v>21</v>
       </c>
-      <c r="M36" s="33">
+      <c r="M36" s="30">
         <v>20</v>
       </c>
-      <c r="N36" s="33">
+      <c r="N36" s="30">
         <v>19</v>
       </c>
-      <c r="O36" s="33">
+      <c r="O36" s="30">
         <v>30</v>
       </c>
-      <c r="P36" s="33">
+      <c r="P36" s="30">
         <v>7</v>
       </c>
-      <c r="Q36" s="33" t="s">
-        <v>738</v>
-      </c>
-      <c r="R36" s="33" t="s">
-        <v>738</v>
-      </c>
-      <c r="S36" s="33" t="s">
-        <v>739</v>
-      </c>
-      <c r="T36" s="33" t="s">
-        <v>738</v>
-      </c>
-    </row>
-    <row r="37" spans="1:20" ht="30" x14ac:dyDescent="0.2">
+      <c r="Q36" s="30" t="s">
+        <v>738</v>
+      </c>
+      <c r="R36" s="30" t="s">
+        <v>738</v>
+      </c>
+      <c r="S36" s="30" t="s">
+        <v>739</v>
+      </c>
+      <c r="T36" s="30" t="s">
+        <v>738</v>
+      </c>
+    </row>
+    <row r="37" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A37" t="s">
         <v>794</v>
       </c>
@@ -23372,52 +25593,52 @@
       <c r="D37" t="s">
         <v>919</v>
       </c>
-      <c r="E37" s="33" t="s">
+      <c r="E37" s="30" t="s">
         <v>742</v>
       </c>
-      <c r="F37" s="33" t="s">
+      <c r="F37" s="30" t="s">
         <v>741</v>
       </c>
-      <c r="G37" s="33">
+      <c r="G37" s="30">
         <v>59</v>
       </c>
-      <c r="H37" s="33">
+      <c r="H37" s="30">
         <v>49</v>
       </c>
-      <c r="I37" s="33">
+      <c r="I37" s="30">
         <v>12</v>
       </c>
-      <c r="J37" s="33">
+      <c r="J37" s="30">
         <v>11</v>
       </c>
-      <c r="K37" s="33">
+      <c r="K37" s="30">
         <v>10</v>
       </c>
-      <c r="L37" s="33">
+      <c r="L37" s="30">
         <v>12</v>
       </c>
-      <c r="M37" s="33">
+      <c r="M37" s="30">
         <v>13</v>
       </c>
-      <c r="N37" s="33">
+      <c r="N37" s="30">
         <v>14</v>
       </c>
-      <c r="O37" s="33">
+      <c r="O37" s="30">
         <v>20</v>
       </c>
-      <c r="P37" s="33">
+      <c r="P37" s="30">
         <v>6</v>
       </c>
-      <c r="Q37" s="33" t="s">
-        <v>738</v>
-      </c>
-      <c r="R37" s="33" t="s">
-        <v>739</v>
-      </c>
-      <c r="S37" s="33" t="s">
-        <v>738</v>
-      </c>
-      <c r="T37" s="33" t="s">
+      <c r="Q37" s="30" t="s">
+        <v>738</v>
+      </c>
+      <c r="R37" s="30" t="s">
+        <v>739</v>
+      </c>
+      <c r="S37" s="30" t="s">
+        <v>738</v>
+      </c>
+      <c r="T37" s="30" t="s">
         <v>738</v>
       </c>
     </row>
@@ -23434,56 +25655,56 @@
       <c r="D38" t="s">
         <v>920</v>
       </c>
-      <c r="E38" s="33" t="s">
+      <c r="E38" s="30" t="s">
         <v>740</v>
       </c>
-      <c r="F38" s="33" t="s">
+      <c r="F38" s="30" t="s">
         <v>741</v>
       </c>
-      <c r="G38" s="33">
+      <c r="G38" s="30">
         <v>48</v>
       </c>
-      <c r="H38" s="33">
+      <c r="H38" s="30">
         <v>38</v>
       </c>
-      <c r="I38" s="33">
+      <c r="I38" s="30">
         <v>22</v>
       </c>
-      <c r="J38" s="33">
+      <c r="J38" s="30">
         <v>19</v>
       </c>
-      <c r="K38" s="33">
+      <c r="K38" s="30">
         <v>15</v>
       </c>
-      <c r="L38" s="33">
+      <c r="L38" s="30">
         <v>20</v>
       </c>
-      <c r="M38" s="33">
+      <c r="M38" s="30">
         <v>22</v>
       </c>
-      <c r="N38" s="33">
+      <c r="N38" s="30">
         <v>17</v>
       </c>
-      <c r="O38" s="33">
+      <c r="O38" s="30">
         <v>30</v>
       </c>
-      <c r="P38" s="33">
+      <c r="P38" s="30">
         <v>3</v>
       </c>
-      <c r="Q38" s="33" t="s">
-        <v>738</v>
-      </c>
-      <c r="R38" s="33" t="s">
-        <v>738</v>
-      </c>
-      <c r="S38" s="33" t="s">
-        <v>739</v>
-      </c>
-      <c r="T38" s="33" t="s">
-        <v>739</v>
-      </c>
-    </row>
-    <row r="39" spans="1:20" ht="30" x14ac:dyDescent="0.2">
+      <c r="Q38" s="30" t="s">
+        <v>738</v>
+      </c>
+      <c r="R38" s="30" t="s">
+        <v>738</v>
+      </c>
+      <c r="S38" s="30" t="s">
+        <v>739</v>
+      </c>
+      <c r="T38" s="30" t="s">
+        <v>739</v>
+      </c>
+    </row>
+    <row r="39" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A39" t="s">
         <v>801</v>
       </c>
@@ -23496,52 +25717,52 @@
       <c r="D39" t="s">
         <v>921</v>
       </c>
-      <c r="E39" s="33" t="s">
+      <c r="E39" s="30" t="s">
         <v>742</v>
       </c>
-      <c r="F39" s="33" t="s">
+      <c r="F39" s="30" t="s">
         <v>741</v>
       </c>
-      <c r="G39" s="33">
+      <c r="G39" s="30">
         <v>52</v>
       </c>
-      <c r="H39" s="33">
+      <c r="H39" s="30">
         <v>42</v>
       </c>
-      <c r="I39" s="33">
+      <c r="I39" s="30">
         <v>10</v>
       </c>
-      <c r="J39" s="33">
+      <c r="J39" s="30">
         <v>13</v>
       </c>
-      <c r="K39" s="33">
+      <c r="K39" s="30">
         <v>16</v>
       </c>
-      <c r="L39" s="33">
+      <c r="L39" s="30">
         <v>12</v>
       </c>
-      <c r="M39" s="33">
+      <c r="M39" s="30">
         <v>14</v>
       </c>
-      <c r="N39" s="33">
+      <c r="N39" s="30">
         <v>16</v>
       </c>
-      <c r="O39" s="33">
+      <c r="O39" s="30">
         <v>30</v>
       </c>
-      <c r="P39" s="33">
+      <c r="P39" s="30">
         <v>5</v>
       </c>
-      <c r="Q39" s="33" t="s">
-        <v>739</v>
-      </c>
-      <c r="R39" s="33" t="s">
-        <v>739</v>
-      </c>
-      <c r="S39" s="33" t="s">
-        <v>738</v>
-      </c>
-      <c r="T39" s="33" t="s">
+      <c r="Q39" s="30" t="s">
+        <v>739</v>
+      </c>
+      <c r="R39" s="30" t="s">
+        <v>739</v>
+      </c>
+      <c r="S39" s="30" t="s">
+        <v>738</v>
+      </c>
+      <c r="T39" s="30" t="s">
         <v>738</v>
       </c>
     </row>
